--- a/public/sample/users_import.xlsx
+++ b/public/sample/users_import.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+  <si>
+    <t>SRNO</t>
+  </si>
   <si>
     <t>Email</t>
   </si>
@@ -58,7 +61,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Website</t>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>ParticipationType</t>
+  </si>
+  <si>
+    <t>EmployeeType</t>
+  </si>
+  <si>
+    <t>Zone</t>
   </si>
   <si>
     <t>demo12@gmail.com</t>
@@ -88,7 +100,16 @@
     <t>Active</t>
   </si>
   <si>
-    <t>https://stackoverflow.com/</t>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Zone 1</t>
   </si>
   <si>
     <t>demo2@gmail.com</t>
@@ -106,6 +127,15 @@
     <t>Lucknow</t>
   </si>
   <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Zone 2</t>
+  </si>
+  <si>
     <t>demo3@gmail.com</t>
   </si>
   <si>
@@ -118,17 +148,29 @@
     <t>EMP003</t>
   </si>
   <si>
-    <t>Gazipur</t>
+    <t>Ghazipur</t>
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>Salesforce Developer</t>
+  </si>
+  <si>
+    <t>Part 3</t>
+  </si>
+  <si>
+    <t>Part time</t>
+  </si>
+  <si>
+    <t>Zone 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -139,10 +181,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,14 +197,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -435,43 +470,55 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
+      <c r="A2" s="1">
+        <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
         <v>9.450300233E9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>9.450300232E9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1">
         <v>123456.0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1.23456789E8</v>
       </c>
       <c r="M2" s="1">
         <v>1.23456789E8</v>
@@ -479,49 +526,61 @@
       <c r="N2" s="1">
         <v>1.23456789E8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.450300231E9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.450300233E9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9.450300231E9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9.450300233E9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1">
         <v>123456.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.23456789E8</v>
       </c>
       <c r="M3" s="1">
         <v>1.23456789E8</v>
@@ -529,49 +588,61 @@
       <c r="N3" s="1">
         <v>1.23456789E8</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.450300232E9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.450300234E9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9.450300232E9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9.450300234E9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1">
         <v>123456.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.23456789E8</v>
       </c>
       <c r="M4" s="1">
         <v>1.23456789E8</v>
@@ -579,3012 +650,4018 @@
       <c r="N4" s="1">
         <v>1.23456789E8</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>25</v>
+      <c r="O4" s="1">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
     <row r="6">
-      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7">
-      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8">
-      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="S8" s="2"/>
     </row>
     <row r="9">
-      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10">
-      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11">
-      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12">
-      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
     <row r="13">
-      <c r="O13" s="3"/>
+      <c r="P13" s="1"/>
+      <c r="S13" s="2"/>
     </row>
     <row r="14">
-      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="S14" s="2"/>
     </row>
     <row r="15">
-      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="S15" s="2"/>
     </row>
     <row r="16">
-      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="S16" s="2"/>
     </row>
     <row r="17">
-      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
     <row r="18">
-      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row r="19">
-      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row r="20">
-      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row r="21">
-      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row r="22">
-      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row r="23">
-      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row r="24">
-      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
     <row r="25">
-      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="S25" s="2"/>
     </row>
     <row r="26">
-      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
     <row r="27">
-      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28">
-      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
+      <c r="S28" s="2"/>
     </row>
     <row r="29">
-      <c r="O29" s="3"/>
+      <c r="P29" s="2"/>
+      <c r="S29" s="2"/>
     </row>
     <row r="30">
-      <c r="O30" s="3"/>
+      <c r="P30" s="2"/>
+      <c r="S30" s="2"/>
     </row>
     <row r="31">
-      <c r="O31" s="3"/>
+      <c r="P31" s="2"/>
+      <c r="S31" s="2"/>
     </row>
     <row r="32">
-      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33">
-      <c r="O33" s="3"/>
+      <c r="P33" s="2"/>
+      <c r="S33" s="2"/>
     </row>
     <row r="34">
-      <c r="O34" s="3"/>
+      <c r="P34" s="2"/>
+      <c r="S34" s="2"/>
     </row>
     <row r="35">
-      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="S35" s="2"/>
     </row>
     <row r="36">
-      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="S36" s="2"/>
     </row>
     <row r="37">
-      <c r="O37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="S37" s="2"/>
     </row>
     <row r="38">
-      <c r="O38" s="3"/>
+      <c r="P38" s="2"/>
+      <c r="S38" s="2"/>
     </row>
     <row r="39">
-      <c r="O39" s="3"/>
+      <c r="P39" s="2"/>
+      <c r="S39" s="2"/>
     </row>
     <row r="40">
-      <c r="O40" s="3"/>
+      <c r="P40" s="2"/>
+      <c r="S40" s="2"/>
     </row>
     <row r="41">
-      <c r="O41" s="3"/>
+      <c r="P41" s="2"/>
+      <c r="S41" s="2"/>
     </row>
     <row r="42">
-      <c r="O42" s="3"/>
+      <c r="P42" s="2"/>
+      <c r="S42" s="2"/>
     </row>
     <row r="43">
-      <c r="O43" s="3"/>
+      <c r="P43" s="2"/>
+      <c r="S43" s="2"/>
     </row>
     <row r="44">
-      <c r="O44" s="3"/>
+      <c r="P44" s="2"/>
+      <c r="S44" s="2"/>
     </row>
     <row r="45">
-      <c r="O45" s="3"/>
+      <c r="P45" s="2"/>
+      <c r="S45" s="2"/>
     </row>
     <row r="46">
-      <c r="O46" s="3"/>
+      <c r="P46" s="2"/>
+      <c r="S46" s="2"/>
     </row>
     <row r="47">
-      <c r="O47" s="3"/>
+      <c r="P47" s="2"/>
+      <c r="S47" s="2"/>
     </row>
     <row r="48">
-      <c r="O48" s="3"/>
+      <c r="P48" s="2"/>
+      <c r="S48" s="2"/>
     </row>
     <row r="49">
-      <c r="O49" s="3"/>
+      <c r="P49" s="2"/>
+      <c r="S49" s="2"/>
     </row>
     <row r="50">
-      <c r="O50" s="3"/>
+      <c r="P50" s="2"/>
+      <c r="S50" s="2"/>
     </row>
     <row r="51">
-      <c r="O51" s="3"/>
+      <c r="P51" s="2"/>
+      <c r="S51" s="2"/>
     </row>
     <row r="52">
-      <c r="O52" s="3"/>
+      <c r="P52" s="2"/>
+      <c r="S52" s="2"/>
     </row>
     <row r="53">
-      <c r="O53" s="3"/>
+      <c r="P53" s="2"/>
+      <c r="S53" s="2"/>
     </row>
     <row r="54">
-      <c r="O54" s="3"/>
+      <c r="P54" s="2"/>
+      <c r="S54" s="2"/>
     </row>
     <row r="55">
-      <c r="O55" s="3"/>
+      <c r="P55" s="2"/>
+      <c r="S55" s="2"/>
     </row>
     <row r="56">
-      <c r="O56" s="3"/>
+      <c r="P56" s="2"/>
+      <c r="S56" s="2"/>
     </row>
     <row r="57">
-      <c r="O57" s="3"/>
+      <c r="P57" s="2"/>
+      <c r="S57" s="2"/>
     </row>
     <row r="58">
-      <c r="O58" s="3"/>
+      <c r="P58" s="2"/>
+      <c r="S58" s="2"/>
     </row>
     <row r="59">
-      <c r="O59" s="3"/>
+      <c r="P59" s="2"/>
+      <c r="S59" s="2"/>
     </row>
     <row r="60">
-      <c r="O60" s="3"/>
+      <c r="P60" s="2"/>
+      <c r="S60" s="2"/>
     </row>
     <row r="61">
-      <c r="O61" s="3"/>
+      <c r="P61" s="2"/>
+      <c r="S61" s="2"/>
     </row>
     <row r="62">
-      <c r="O62" s="3"/>
+      <c r="P62" s="2"/>
+      <c r="S62" s="2"/>
     </row>
     <row r="63">
-      <c r="O63" s="3"/>
+      <c r="P63" s="2"/>
+      <c r="S63" s="2"/>
     </row>
     <row r="64">
-      <c r="O64" s="3"/>
+      <c r="P64" s="2"/>
+      <c r="S64" s="2"/>
     </row>
     <row r="65">
-      <c r="O65" s="3"/>
+      <c r="P65" s="2"/>
+      <c r="S65" s="2"/>
     </row>
     <row r="66">
-      <c r="O66" s="3"/>
+      <c r="P66" s="2"/>
+      <c r="S66" s="2"/>
     </row>
     <row r="67">
-      <c r="O67" s="3"/>
+      <c r="P67" s="2"/>
+      <c r="S67" s="2"/>
     </row>
     <row r="68">
-      <c r="O68" s="3"/>
+      <c r="P68" s="2"/>
+      <c r="S68" s="2"/>
     </row>
     <row r="69">
-      <c r="O69" s="3"/>
+      <c r="P69" s="2"/>
+      <c r="S69" s="2"/>
     </row>
     <row r="70">
-      <c r="O70" s="3"/>
+      <c r="P70" s="2"/>
+      <c r="S70" s="2"/>
     </row>
     <row r="71">
-      <c r="O71" s="3"/>
+      <c r="P71" s="2"/>
+      <c r="S71" s="2"/>
     </row>
     <row r="72">
-      <c r="O72" s="3"/>
+      <c r="P72" s="2"/>
+      <c r="S72" s="2"/>
     </row>
     <row r="73">
-      <c r="O73" s="3"/>
+      <c r="P73" s="2"/>
+      <c r="S73" s="2"/>
     </row>
     <row r="74">
-      <c r="O74" s="3"/>
+      <c r="P74" s="2"/>
+      <c r="S74" s="2"/>
     </row>
     <row r="75">
-      <c r="O75" s="3"/>
+      <c r="P75" s="2"/>
+      <c r="S75" s="2"/>
     </row>
     <row r="76">
-      <c r="O76" s="3"/>
+      <c r="P76" s="2"/>
+      <c r="S76" s="2"/>
     </row>
     <row r="77">
-      <c r="O77" s="3"/>
+      <c r="P77" s="2"/>
+      <c r="S77" s="2"/>
     </row>
     <row r="78">
-      <c r="O78" s="3"/>
+      <c r="P78" s="2"/>
+      <c r="S78" s="2"/>
     </row>
     <row r="79">
-      <c r="O79" s="3"/>
+      <c r="P79" s="2"/>
+      <c r="S79" s="2"/>
     </row>
     <row r="80">
-      <c r="O80" s="3"/>
+      <c r="P80" s="2"/>
+      <c r="S80" s="2"/>
     </row>
     <row r="81">
-      <c r="O81" s="3"/>
+      <c r="P81" s="2"/>
+      <c r="S81" s="2"/>
     </row>
     <row r="82">
-      <c r="O82" s="3"/>
+      <c r="P82" s="2"/>
+      <c r="S82" s="2"/>
     </row>
     <row r="83">
-      <c r="O83" s="3"/>
+      <c r="P83" s="2"/>
+      <c r="S83" s="2"/>
     </row>
     <row r="84">
-      <c r="O84" s="3"/>
+      <c r="P84" s="2"/>
+      <c r="S84" s="2"/>
     </row>
     <row r="85">
-      <c r="O85" s="3"/>
+      <c r="P85" s="2"/>
+      <c r="S85" s="2"/>
     </row>
     <row r="86">
-      <c r="O86" s="3"/>
+      <c r="P86" s="2"/>
+      <c r="S86" s="2"/>
     </row>
     <row r="87">
-      <c r="O87" s="3"/>
+      <c r="P87" s="2"/>
+      <c r="S87" s="2"/>
     </row>
     <row r="88">
-      <c r="O88" s="3"/>
+      <c r="P88" s="2"/>
+      <c r="S88" s="2"/>
     </row>
     <row r="89">
-      <c r="O89" s="3"/>
+      <c r="P89" s="2"/>
+      <c r="S89" s="2"/>
     </row>
     <row r="90">
-      <c r="O90" s="3"/>
+      <c r="P90" s="2"/>
+      <c r="S90" s="2"/>
     </row>
     <row r="91">
-      <c r="O91" s="3"/>
+      <c r="P91" s="2"/>
+      <c r="S91" s="2"/>
     </row>
     <row r="92">
-      <c r="O92" s="3"/>
+      <c r="P92" s="2"/>
+      <c r="S92" s="2"/>
     </row>
     <row r="93">
-      <c r="O93" s="3"/>
+      <c r="P93" s="2"/>
+      <c r="S93" s="2"/>
     </row>
     <row r="94">
-      <c r="O94" s="3"/>
+      <c r="P94" s="2"/>
+      <c r="S94" s="2"/>
     </row>
     <row r="95">
-      <c r="O95" s="3"/>
+      <c r="P95" s="2"/>
+      <c r="S95" s="2"/>
     </row>
     <row r="96">
-      <c r="O96" s="3"/>
+      <c r="P96" s="2"/>
+      <c r="S96" s="2"/>
     </row>
     <row r="97">
-      <c r="O97" s="3"/>
+      <c r="P97" s="2"/>
+      <c r="S97" s="2"/>
     </row>
     <row r="98">
-      <c r="O98" s="3"/>
+      <c r="P98" s="2"/>
+      <c r="S98" s="2"/>
     </row>
     <row r="99">
-      <c r="O99" s="3"/>
+      <c r="P99" s="2"/>
+      <c r="S99" s="2"/>
     </row>
     <row r="100">
-      <c r="O100" s="3"/>
+      <c r="P100" s="2"/>
+      <c r="S100" s="2"/>
     </row>
     <row r="101">
-      <c r="O101" s="3"/>
+      <c r="P101" s="2"/>
+      <c r="S101" s="2"/>
     </row>
     <row r="102">
-      <c r="O102" s="3"/>
+      <c r="P102" s="2"/>
+      <c r="S102" s="2"/>
     </row>
     <row r="103">
-      <c r="O103" s="3"/>
+      <c r="P103" s="2"/>
+      <c r="S103" s="2"/>
     </row>
     <row r="104">
-      <c r="O104" s="3"/>
+      <c r="P104" s="2"/>
+      <c r="S104" s="2"/>
     </row>
     <row r="105">
-      <c r="O105" s="3"/>
+      <c r="P105" s="2"/>
+      <c r="S105" s="2"/>
     </row>
     <row r="106">
-      <c r="O106" s="3"/>
+      <c r="P106" s="2"/>
+      <c r="S106" s="2"/>
     </row>
     <row r="107">
-      <c r="O107" s="3"/>
+      <c r="P107" s="2"/>
+      <c r="S107" s="2"/>
     </row>
     <row r="108">
-      <c r="O108" s="3"/>
+      <c r="P108" s="2"/>
+      <c r="S108" s="2"/>
     </row>
     <row r="109">
-      <c r="O109" s="3"/>
+      <c r="P109" s="2"/>
+      <c r="S109" s="2"/>
     </row>
     <row r="110">
-      <c r="O110" s="3"/>
+      <c r="P110" s="2"/>
+      <c r="S110" s="2"/>
     </row>
     <row r="111">
-      <c r="O111" s="3"/>
+      <c r="P111" s="2"/>
+      <c r="S111" s="2"/>
     </row>
     <row r="112">
-      <c r="O112" s="3"/>
+      <c r="P112" s="2"/>
+      <c r="S112" s="2"/>
     </row>
     <row r="113">
-      <c r="O113" s="3"/>
+      <c r="P113" s="2"/>
+      <c r="S113" s="2"/>
     </row>
     <row r="114">
-      <c r="O114" s="3"/>
+      <c r="P114" s="2"/>
+      <c r="S114" s="2"/>
     </row>
     <row r="115">
-      <c r="O115" s="3"/>
+      <c r="P115" s="2"/>
+      <c r="S115" s="2"/>
     </row>
     <row r="116">
-      <c r="O116" s="3"/>
+      <c r="P116" s="2"/>
+      <c r="S116" s="2"/>
     </row>
     <row r="117">
-      <c r="O117" s="3"/>
+      <c r="P117" s="2"/>
+      <c r="S117" s="2"/>
     </row>
     <row r="118">
-      <c r="O118" s="3"/>
+      <c r="P118" s="2"/>
+      <c r="S118" s="2"/>
     </row>
     <row r="119">
-      <c r="O119" s="3"/>
+      <c r="P119" s="2"/>
+      <c r="S119" s="2"/>
     </row>
     <row r="120">
-      <c r="O120" s="3"/>
+      <c r="P120" s="2"/>
+      <c r="S120" s="2"/>
     </row>
     <row r="121">
-      <c r="O121" s="3"/>
+      <c r="P121" s="2"/>
+      <c r="S121" s="2"/>
     </row>
     <row r="122">
-      <c r="O122" s="3"/>
+      <c r="P122" s="2"/>
+      <c r="S122" s="2"/>
     </row>
     <row r="123">
-      <c r="O123" s="3"/>
+      <c r="P123" s="2"/>
+      <c r="S123" s="2"/>
     </row>
     <row r="124">
-      <c r="O124" s="3"/>
+      <c r="P124" s="2"/>
+      <c r="S124" s="2"/>
     </row>
     <row r="125">
-      <c r="O125" s="3"/>
+      <c r="P125" s="2"/>
+      <c r="S125" s="2"/>
     </row>
     <row r="126">
-      <c r="O126" s="3"/>
+      <c r="P126" s="2"/>
+      <c r="S126" s="2"/>
     </row>
     <row r="127">
-      <c r="O127" s="3"/>
+      <c r="P127" s="2"/>
+      <c r="S127" s="2"/>
     </row>
     <row r="128">
-      <c r="O128" s="3"/>
+      <c r="P128" s="2"/>
+      <c r="S128" s="2"/>
     </row>
     <row r="129">
-      <c r="O129" s="3"/>
+      <c r="P129" s="2"/>
+      <c r="S129" s="2"/>
     </row>
     <row r="130">
-      <c r="O130" s="3"/>
+      <c r="P130" s="2"/>
+      <c r="S130" s="2"/>
     </row>
     <row r="131">
-      <c r="O131" s="3"/>
+      <c r="P131" s="2"/>
+      <c r="S131" s="2"/>
     </row>
     <row r="132">
-      <c r="O132" s="3"/>
+      <c r="P132" s="2"/>
+      <c r="S132" s="2"/>
     </row>
     <row r="133">
-      <c r="O133" s="3"/>
+      <c r="P133" s="2"/>
+      <c r="S133" s="2"/>
     </row>
     <row r="134">
-      <c r="O134" s="3"/>
+      <c r="P134" s="2"/>
+      <c r="S134" s="2"/>
     </row>
     <row r="135">
-      <c r="O135" s="3"/>
+      <c r="P135" s="2"/>
+      <c r="S135" s="2"/>
     </row>
     <row r="136">
-      <c r="O136" s="3"/>
+      <c r="P136" s="2"/>
+      <c r="S136" s="2"/>
     </row>
     <row r="137">
-      <c r="O137" s="3"/>
+      <c r="P137" s="2"/>
+      <c r="S137" s="2"/>
     </row>
     <row r="138">
-      <c r="O138" s="3"/>
+      <c r="P138" s="2"/>
+      <c r="S138" s="2"/>
     </row>
     <row r="139">
-      <c r="O139" s="3"/>
+      <c r="P139" s="2"/>
+      <c r="S139" s="2"/>
     </row>
     <row r="140">
-      <c r="O140" s="3"/>
+      <c r="P140" s="2"/>
+      <c r="S140" s="2"/>
     </row>
     <row r="141">
-      <c r="O141" s="3"/>
+      <c r="P141" s="2"/>
+      <c r="S141" s="2"/>
     </row>
     <row r="142">
-      <c r="O142" s="3"/>
+      <c r="P142" s="2"/>
+      <c r="S142" s="2"/>
     </row>
     <row r="143">
-      <c r="O143" s="3"/>
+      <c r="P143" s="2"/>
+      <c r="S143" s="2"/>
     </row>
     <row r="144">
-      <c r="O144" s="3"/>
+      <c r="P144" s="2"/>
+      <c r="S144" s="2"/>
     </row>
     <row r="145">
-      <c r="O145" s="3"/>
+      <c r="P145" s="2"/>
+      <c r="S145" s="2"/>
     </row>
     <row r="146">
-      <c r="O146" s="3"/>
+      <c r="P146" s="2"/>
+      <c r="S146" s="2"/>
     </row>
     <row r="147">
-      <c r="O147" s="3"/>
+      <c r="P147" s="2"/>
+      <c r="S147" s="2"/>
     </row>
     <row r="148">
-      <c r="O148" s="3"/>
+      <c r="P148" s="2"/>
+      <c r="S148" s="2"/>
     </row>
     <row r="149">
-      <c r="O149" s="3"/>
+      <c r="P149" s="2"/>
+      <c r="S149" s="2"/>
     </row>
     <row r="150">
-      <c r="O150" s="3"/>
+      <c r="P150" s="2"/>
+      <c r="S150" s="2"/>
     </row>
     <row r="151">
-      <c r="O151" s="3"/>
+      <c r="P151" s="2"/>
+      <c r="S151" s="2"/>
     </row>
     <row r="152">
-      <c r="O152" s="3"/>
+      <c r="P152" s="2"/>
+      <c r="S152" s="2"/>
     </row>
     <row r="153">
-      <c r="O153" s="3"/>
+      <c r="P153" s="2"/>
+      <c r="S153" s="2"/>
     </row>
     <row r="154">
-      <c r="O154" s="3"/>
+      <c r="P154" s="2"/>
+      <c r="S154" s="2"/>
     </row>
     <row r="155">
-      <c r="O155" s="3"/>
+      <c r="P155" s="2"/>
+      <c r="S155" s="2"/>
     </row>
     <row r="156">
-      <c r="O156" s="3"/>
+      <c r="P156" s="2"/>
+      <c r="S156" s="2"/>
     </row>
     <row r="157">
-      <c r="O157" s="3"/>
+      <c r="P157" s="2"/>
+      <c r="S157" s="2"/>
     </row>
     <row r="158">
-      <c r="O158" s="3"/>
+      <c r="P158" s="2"/>
+      <c r="S158" s="2"/>
     </row>
     <row r="159">
-      <c r="O159" s="3"/>
+      <c r="P159" s="2"/>
+      <c r="S159" s="2"/>
     </row>
     <row r="160">
-      <c r="O160" s="3"/>
+      <c r="P160" s="2"/>
+      <c r="S160" s="2"/>
     </row>
     <row r="161">
-      <c r="O161" s="3"/>
+      <c r="P161" s="2"/>
+      <c r="S161" s="2"/>
     </row>
     <row r="162">
-      <c r="O162" s="3"/>
+      <c r="P162" s="2"/>
+      <c r="S162" s="2"/>
     </row>
     <row r="163">
-      <c r="O163" s="3"/>
+      <c r="P163" s="2"/>
+      <c r="S163" s="2"/>
     </row>
     <row r="164">
-      <c r="O164" s="3"/>
+      <c r="P164" s="2"/>
+      <c r="S164" s="2"/>
     </row>
     <row r="165">
-      <c r="O165" s="3"/>
+      <c r="P165" s="2"/>
+      <c r="S165" s="2"/>
     </row>
     <row r="166">
-      <c r="O166" s="3"/>
+      <c r="P166" s="2"/>
+      <c r="S166" s="2"/>
     </row>
     <row r="167">
-      <c r="O167" s="3"/>
+      <c r="P167" s="2"/>
+      <c r="S167" s="2"/>
     </row>
     <row r="168">
-      <c r="O168" s="3"/>
+      <c r="P168" s="2"/>
+      <c r="S168" s="2"/>
     </row>
     <row r="169">
-      <c r="O169" s="3"/>
+      <c r="P169" s="2"/>
+      <c r="S169" s="2"/>
     </row>
     <row r="170">
-      <c r="O170" s="3"/>
+      <c r="P170" s="2"/>
+      <c r="S170" s="2"/>
     </row>
     <row r="171">
-      <c r="O171" s="3"/>
+      <c r="P171" s="2"/>
+      <c r="S171" s="2"/>
     </row>
     <row r="172">
-      <c r="O172" s="3"/>
+      <c r="P172" s="2"/>
+      <c r="S172" s="2"/>
     </row>
     <row r="173">
-      <c r="O173" s="3"/>
+      <c r="P173" s="2"/>
+      <c r="S173" s="2"/>
     </row>
     <row r="174">
-      <c r="O174" s="3"/>
+      <c r="P174" s="2"/>
+      <c r="S174" s="2"/>
     </row>
     <row r="175">
-      <c r="O175" s="3"/>
+      <c r="P175" s="2"/>
+      <c r="S175" s="2"/>
     </row>
     <row r="176">
-      <c r="O176" s="3"/>
+      <c r="P176" s="2"/>
+      <c r="S176" s="2"/>
     </row>
     <row r="177">
-      <c r="O177" s="3"/>
+      <c r="P177" s="2"/>
+      <c r="S177" s="2"/>
     </row>
     <row r="178">
-      <c r="O178" s="3"/>
+      <c r="P178" s="2"/>
+      <c r="S178" s="2"/>
     </row>
     <row r="179">
-      <c r="O179" s="3"/>
+      <c r="P179" s="2"/>
+      <c r="S179" s="2"/>
     </row>
     <row r="180">
-      <c r="O180" s="3"/>
+      <c r="P180" s="2"/>
+      <c r="S180" s="2"/>
     </row>
     <row r="181">
-      <c r="O181" s="3"/>
+      <c r="P181" s="2"/>
+      <c r="S181" s="2"/>
     </row>
     <row r="182">
-      <c r="O182" s="3"/>
+      <c r="P182" s="2"/>
+      <c r="S182" s="2"/>
     </row>
     <row r="183">
-      <c r="O183" s="3"/>
+      <c r="P183" s="2"/>
+      <c r="S183" s="2"/>
     </row>
     <row r="184">
-      <c r="O184" s="3"/>
+      <c r="P184" s="2"/>
+      <c r="S184" s="2"/>
     </row>
     <row r="185">
-      <c r="O185" s="3"/>
+      <c r="P185" s="2"/>
+      <c r="S185" s="2"/>
     </row>
     <row r="186">
-      <c r="O186" s="3"/>
+      <c r="P186" s="2"/>
+      <c r="S186" s="2"/>
     </row>
     <row r="187">
-      <c r="O187" s="3"/>
+      <c r="P187" s="2"/>
+      <c r="S187" s="2"/>
     </row>
     <row r="188">
-      <c r="O188" s="3"/>
+      <c r="P188" s="2"/>
+      <c r="S188" s="2"/>
     </row>
     <row r="189">
-      <c r="O189" s="3"/>
+      <c r="P189" s="2"/>
+      <c r="S189" s="2"/>
     </row>
     <row r="190">
-      <c r="O190" s="3"/>
+      <c r="P190" s="2"/>
+      <c r="S190" s="2"/>
     </row>
     <row r="191">
-      <c r="O191" s="3"/>
+      <c r="P191" s="2"/>
+      <c r="S191" s="2"/>
     </row>
     <row r="192">
-      <c r="O192" s="3"/>
+      <c r="P192" s="2"/>
+      <c r="S192" s="2"/>
     </row>
     <row r="193">
-      <c r="O193" s="3"/>
+      <c r="P193" s="2"/>
+      <c r="S193" s="2"/>
     </row>
     <row r="194">
-      <c r="O194" s="3"/>
+      <c r="P194" s="2"/>
+      <c r="S194" s="2"/>
     </row>
     <row r="195">
-      <c r="O195" s="3"/>
+      <c r="P195" s="2"/>
+      <c r="S195" s="2"/>
     </row>
     <row r="196">
-      <c r="O196" s="3"/>
+      <c r="P196" s="2"/>
+      <c r="S196" s="2"/>
     </row>
     <row r="197">
-      <c r="O197" s="3"/>
+      <c r="P197" s="2"/>
+      <c r="S197" s="2"/>
     </row>
     <row r="198">
-      <c r="O198" s="3"/>
+      <c r="P198" s="2"/>
+      <c r="S198" s="2"/>
     </row>
     <row r="199">
-      <c r="O199" s="3"/>
+      <c r="P199" s="2"/>
+      <c r="S199" s="2"/>
     </row>
     <row r="200">
-      <c r="O200" s="3"/>
+      <c r="P200" s="2"/>
+      <c r="S200" s="2"/>
     </row>
     <row r="201">
-      <c r="O201" s="3"/>
+      <c r="P201" s="2"/>
+      <c r="S201" s="2"/>
     </row>
     <row r="202">
-      <c r="O202" s="3"/>
+      <c r="P202" s="2"/>
+      <c r="S202" s="2"/>
     </row>
     <row r="203">
-      <c r="O203" s="3"/>
+      <c r="P203" s="2"/>
+      <c r="S203" s="2"/>
     </row>
     <row r="204">
-      <c r="O204" s="3"/>
+      <c r="P204" s="2"/>
+      <c r="S204" s="2"/>
     </row>
     <row r="205">
-      <c r="O205" s="3"/>
+      <c r="P205" s="2"/>
+      <c r="S205" s="2"/>
     </row>
     <row r="206">
-      <c r="O206" s="3"/>
+      <c r="P206" s="2"/>
+      <c r="S206" s="2"/>
     </row>
     <row r="207">
-      <c r="O207" s="3"/>
+      <c r="P207" s="2"/>
+      <c r="S207" s="2"/>
     </row>
     <row r="208">
-      <c r="O208" s="3"/>
+      <c r="P208" s="2"/>
+      <c r="S208" s="2"/>
     </row>
     <row r="209">
-      <c r="O209" s="3"/>
+      <c r="P209" s="2"/>
+      <c r="S209" s="2"/>
     </row>
     <row r="210">
-      <c r="O210" s="3"/>
+      <c r="P210" s="2"/>
+      <c r="S210" s="2"/>
     </row>
     <row r="211">
-      <c r="O211" s="3"/>
+      <c r="P211" s="2"/>
+      <c r="S211" s="2"/>
     </row>
     <row r="212">
-      <c r="O212" s="3"/>
+      <c r="P212" s="2"/>
+      <c r="S212" s="2"/>
     </row>
     <row r="213">
-      <c r="O213" s="3"/>
+      <c r="P213" s="2"/>
+      <c r="S213" s="2"/>
     </row>
     <row r="214">
-      <c r="O214" s="3"/>
+      <c r="P214" s="2"/>
+      <c r="S214" s="2"/>
     </row>
     <row r="215">
-      <c r="O215" s="3"/>
+      <c r="P215" s="2"/>
+      <c r="S215" s="2"/>
     </row>
     <row r="216">
-      <c r="O216" s="3"/>
+      <c r="P216" s="2"/>
+      <c r="S216" s="2"/>
     </row>
     <row r="217">
-      <c r="O217" s="3"/>
+      <c r="P217" s="2"/>
+      <c r="S217" s="2"/>
     </row>
     <row r="218">
-      <c r="O218" s="3"/>
+      <c r="P218" s="2"/>
+      <c r="S218" s="2"/>
     </row>
     <row r="219">
-      <c r="O219" s="3"/>
+      <c r="P219" s="2"/>
+      <c r="S219" s="2"/>
     </row>
     <row r="220">
-      <c r="O220" s="3"/>
+      <c r="P220" s="2"/>
+      <c r="S220" s="2"/>
     </row>
     <row r="221">
-      <c r="O221" s="3"/>
+      <c r="P221" s="2"/>
+      <c r="S221" s="2"/>
     </row>
     <row r="222">
-      <c r="O222" s="3"/>
+      <c r="P222" s="2"/>
+      <c r="S222" s="2"/>
     </row>
     <row r="223">
-      <c r="O223" s="3"/>
+      <c r="P223" s="2"/>
+      <c r="S223" s="2"/>
     </row>
     <row r="224">
-      <c r="O224" s="3"/>
+      <c r="P224" s="2"/>
+      <c r="S224" s="2"/>
     </row>
     <row r="225">
-      <c r="O225" s="3"/>
+      <c r="P225" s="2"/>
+      <c r="S225" s="2"/>
     </row>
     <row r="226">
-      <c r="O226" s="3"/>
+      <c r="P226" s="2"/>
+      <c r="S226" s="2"/>
     </row>
     <row r="227">
-      <c r="O227" s="3"/>
+      <c r="P227" s="2"/>
+      <c r="S227" s="2"/>
     </row>
     <row r="228">
-      <c r="O228" s="3"/>
+      <c r="P228" s="2"/>
+      <c r="S228" s="2"/>
     </row>
     <row r="229">
-      <c r="O229" s="3"/>
+      <c r="P229" s="2"/>
+      <c r="S229" s="2"/>
     </row>
     <row r="230">
-      <c r="O230" s="3"/>
+      <c r="P230" s="2"/>
+      <c r="S230" s="2"/>
     </row>
     <row r="231">
-      <c r="O231" s="3"/>
+      <c r="P231" s="2"/>
+      <c r="S231" s="2"/>
     </row>
     <row r="232">
-      <c r="O232" s="3"/>
+      <c r="P232" s="2"/>
+      <c r="S232" s="2"/>
     </row>
     <row r="233">
-      <c r="O233" s="3"/>
+      <c r="P233" s="2"/>
+      <c r="S233" s="2"/>
     </row>
     <row r="234">
-      <c r="O234" s="3"/>
+      <c r="P234" s="2"/>
+      <c r="S234" s="2"/>
     </row>
     <row r="235">
-      <c r="O235" s="3"/>
+      <c r="P235" s="2"/>
+      <c r="S235" s="2"/>
     </row>
     <row r="236">
-      <c r="O236" s="3"/>
+      <c r="P236" s="2"/>
+      <c r="S236" s="2"/>
     </row>
     <row r="237">
-      <c r="O237" s="3"/>
+      <c r="P237" s="2"/>
+      <c r="S237" s="2"/>
     </row>
     <row r="238">
-      <c r="O238" s="3"/>
+      <c r="P238" s="2"/>
+      <c r="S238" s="2"/>
     </row>
     <row r="239">
-      <c r="O239" s="3"/>
+      <c r="P239" s="2"/>
+      <c r="S239" s="2"/>
     </row>
     <row r="240">
-      <c r="O240" s="3"/>
+      <c r="P240" s="2"/>
+      <c r="S240" s="2"/>
     </row>
     <row r="241">
-      <c r="O241" s="3"/>
+      <c r="P241" s="2"/>
+      <c r="S241" s="2"/>
     </row>
     <row r="242">
-      <c r="O242" s="3"/>
+      <c r="P242" s="2"/>
+      <c r="S242" s="2"/>
     </row>
     <row r="243">
-      <c r="O243" s="3"/>
+      <c r="P243" s="2"/>
+      <c r="S243" s="2"/>
     </row>
     <row r="244">
-      <c r="O244" s="3"/>
+      <c r="P244" s="2"/>
+      <c r="S244" s="2"/>
     </row>
     <row r="245">
-      <c r="O245" s="3"/>
+      <c r="P245" s="2"/>
+      <c r="S245" s="2"/>
     </row>
     <row r="246">
-      <c r="O246" s="3"/>
+      <c r="P246" s="2"/>
+      <c r="S246" s="2"/>
     </row>
     <row r="247">
-      <c r="O247" s="3"/>
+      <c r="P247" s="2"/>
+      <c r="S247" s="2"/>
     </row>
     <row r="248">
-      <c r="O248" s="3"/>
+      <c r="P248" s="2"/>
+      <c r="S248" s="2"/>
     </row>
     <row r="249">
-      <c r="O249" s="3"/>
+      <c r="P249" s="2"/>
+      <c r="S249" s="2"/>
     </row>
     <row r="250">
-      <c r="O250" s="3"/>
+      <c r="P250" s="2"/>
+      <c r="S250" s="2"/>
     </row>
     <row r="251">
-      <c r="O251" s="3"/>
+      <c r="P251" s="2"/>
+      <c r="S251" s="2"/>
     </row>
     <row r="252">
-      <c r="O252" s="3"/>
+      <c r="P252" s="2"/>
+      <c r="S252" s="2"/>
     </row>
     <row r="253">
-      <c r="O253" s="3"/>
+      <c r="P253" s="2"/>
+      <c r="S253" s="2"/>
     </row>
     <row r="254">
-      <c r="O254" s="3"/>
+      <c r="P254" s="2"/>
+      <c r="S254" s="2"/>
     </row>
     <row r="255">
-      <c r="O255" s="3"/>
+      <c r="P255" s="2"/>
+      <c r="S255" s="2"/>
     </row>
     <row r="256">
-      <c r="O256" s="3"/>
+      <c r="P256" s="2"/>
+      <c r="S256" s="2"/>
     </row>
     <row r="257">
-      <c r="O257" s="3"/>
+      <c r="P257" s="2"/>
+      <c r="S257" s="2"/>
     </row>
     <row r="258">
-      <c r="O258" s="3"/>
+      <c r="P258" s="2"/>
+      <c r="S258" s="2"/>
     </row>
     <row r="259">
-      <c r="O259" s="3"/>
+      <c r="P259" s="2"/>
+      <c r="S259" s="2"/>
     </row>
     <row r="260">
-      <c r="O260" s="3"/>
+      <c r="P260" s="2"/>
+      <c r="S260" s="2"/>
     </row>
     <row r="261">
-      <c r="O261" s="3"/>
+      <c r="P261" s="2"/>
+      <c r="S261" s="2"/>
     </row>
     <row r="262">
-      <c r="O262" s="3"/>
+      <c r="P262" s="2"/>
+      <c r="S262" s="2"/>
     </row>
     <row r="263">
-      <c r="O263" s="3"/>
+      <c r="P263" s="2"/>
+      <c r="S263" s="2"/>
     </row>
     <row r="264">
-      <c r="O264" s="3"/>
+      <c r="P264" s="2"/>
+      <c r="S264" s="2"/>
     </row>
     <row r="265">
-      <c r="O265" s="3"/>
+      <c r="P265" s="2"/>
+      <c r="S265" s="2"/>
     </row>
     <row r="266">
-      <c r="O266" s="3"/>
+      <c r="P266" s="2"/>
+      <c r="S266" s="2"/>
     </row>
     <row r="267">
-      <c r="O267" s="3"/>
+      <c r="P267" s="2"/>
+      <c r="S267" s="2"/>
     </row>
     <row r="268">
-      <c r="O268" s="3"/>
+      <c r="P268" s="2"/>
+      <c r="S268" s="2"/>
     </row>
     <row r="269">
-      <c r="O269" s="3"/>
+      <c r="P269" s="2"/>
+      <c r="S269" s="2"/>
     </row>
     <row r="270">
-      <c r="O270" s="3"/>
+      <c r="P270" s="2"/>
+      <c r="S270" s="2"/>
     </row>
     <row r="271">
-      <c r="O271" s="3"/>
+      <c r="P271" s="2"/>
+      <c r="S271" s="2"/>
     </row>
     <row r="272">
-      <c r="O272" s="3"/>
+      <c r="P272" s="2"/>
+      <c r="S272" s="2"/>
     </row>
     <row r="273">
-      <c r="O273" s="3"/>
+      <c r="P273" s="2"/>
+      <c r="S273" s="2"/>
     </row>
     <row r="274">
-      <c r="O274" s="3"/>
+      <c r="P274" s="2"/>
+      <c r="S274" s="2"/>
     </row>
     <row r="275">
-      <c r="O275" s="3"/>
+      <c r="P275" s="2"/>
+      <c r="S275" s="2"/>
     </row>
     <row r="276">
-      <c r="O276" s="3"/>
+      <c r="P276" s="2"/>
+      <c r="S276" s="2"/>
     </row>
     <row r="277">
-      <c r="O277" s="3"/>
+      <c r="P277" s="2"/>
+      <c r="S277" s="2"/>
     </row>
     <row r="278">
-      <c r="O278" s="3"/>
+      <c r="P278" s="2"/>
+      <c r="S278" s="2"/>
     </row>
     <row r="279">
-      <c r="O279" s="3"/>
+      <c r="P279" s="2"/>
+      <c r="S279" s="2"/>
     </row>
     <row r="280">
-      <c r="O280" s="3"/>
+      <c r="P280" s="2"/>
+      <c r="S280" s="2"/>
     </row>
     <row r="281">
-      <c r="O281" s="3"/>
+      <c r="P281" s="2"/>
+      <c r="S281" s="2"/>
     </row>
     <row r="282">
-      <c r="O282" s="3"/>
+      <c r="P282" s="2"/>
+      <c r="S282" s="2"/>
     </row>
     <row r="283">
-      <c r="O283" s="3"/>
+      <c r="P283" s="2"/>
+      <c r="S283" s="2"/>
     </row>
     <row r="284">
-      <c r="O284" s="3"/>
+      <c r="P284" s="2"/>
+      <c r="S284" s="2"/>
     </row>
     <row r="285">
-      <c r="O285" s="3"/>
+      <c r="P285" s="2"/>
+      <c r="S285" s="2"/>
     </row>
     <row r="286">
-      <c r="O286" s="3"/>
+      <c r="P286" s="2"/>
+      <c r="S286" s="2"/>
     </row>
     <row r="287">
-      <c r="O287" s="3"/>
+      <c r="P287" s="2"/>
+      <c r="S287" s="2"/>
     </row>
     <row r="288">
-      <c r="O288" s="3"/>
+      <c r="P288" s="2"/>
+      <c r="S288" s="2"/>
     </row>
     <row r="289">
-      <c r="O289" s="3"/>
+      <c r="P289" s="2"/>
+      <c r="S289" s="2"/>
     </row>
     <row r="290">
-      <c r="O290" s="3"/>
+      <c r="P290" s="2"/>
+      <c r="S290" s="2"/>
     </row>
     <row r="291">
-      <c r="O291" s="3"/>
+      <c r="P291" s="2"/>
+      <c r="S291" s="2"/>
     </row>
     <row r="292">
-      <c r="O292" s="3"/>
+      <c r="P292" s="2"/>
+      <c r="S292" s="2"/>
     </row>
     <row r="293">
-      <c r="O293" s="3"/>
+      <c r="P293" s="2"/>
+      <c r="S293" s="2"/>
     </row>
     <row r="294">
-      <c r="O294" s="3"/>
+      <c r="P294" s="2"/>
+      <c r="S294" s="2"/>
     </row>
     <row r="295">
-      <c r="O295" s="3"/>
+      <c r="P295" s="2"/>
+      <c r="S295" s="2"/>
     </row>
     <row r="296">
-      <c r="O296" s="3"/>
+      <c r="P296" s="2"/>
+      <c r="S296" s="2"/>
     </row>
     <row r="297">
-      <c r="O297" s="3"/>
+      <c r="P297" s="2"/>
+      <c r="S297" s="2"/>
     </row>
     <row r="298">
-      <c r="O298" s="3"/>
+      <c r="P298" s="2"/>
+      <c r="S298" s="2"/>
     </row>
     <row r="299">
-      <c r="O299" s="3"/>
+      <c r="P299" s="2"/>
+      <c r="S299" s="2"/>
     </row>
     <row r="300">
-      <c r="O300" s="3"/>
+      <c r="P300" s="2"/>
+      <c r="S300" s="2"/>
     </row>
     <row r="301">
-      <c r="O301" s="3"/>
+      <c r="P301" s="2"/>
+      <c r="S301" s="2"/>
     </row>
     <row r="302">
-      <c r="O302" s="3"/>
+      <c r="P302" s="2"/>
+      <c r="S302" s="2"/>
     </row>
     <row r="303">
-      <c r="O303" s="3"/>
+      <c r="P303" s="2"/>
+      <c r="S303" s="2"/>
     </row>
     <row r="304">
-      <c r="O304" s="3"/>
+      <c r="P304" s="2"/>
+      <c r="S304" s="2"/>
     </row>
     <row r="305">
-      <c r="O305" s="3"/>
+      <c r="P305" s="2"/>
+      <c r="S305" s="2"/>
     </row>
     <row r="306">
-      <c r="O306" s="3"/>
+      <c r="P306" s="2"/>
+      <c r="S306" s="2"/>
     </row>
     <row r="307">
-      <c r="O307" s="3"/>
+      <c r="P307" s="2"/>
+      <c r="S307" s="2"/>
     </row>
     <row r="308">
-      <c r="O308" s="3"/>
+      <c r="P308" s="2"/>
+      <c r="S308" s="2"/>
     </row>
     <row r="309">
-      <c r="O309" s="3"/>
+      <c r="P309" s="2"/>
+      <c r="S309" s="2"/>
     </row>
     <row r="310">
-      <c r="O310" s="3"/>
+      <c r="P310" s="2"/>
+      <c r="S310" s="2"/>
     </row>
     <row r="311">
-      <c r="O311" s="3"/>
+      <c r="P311" s="2"/>
+      <c r="S311" s="2"/>
     </row>
     <row r="312">
-      <c r="O312" s="3"/>
+      <c r="P312" s="2"/>
+      <c r="S312" s="2"/>
     </row>
     <row r="313">
-      <c r="O313" s="3"/>
+      <c r="P313" s="2"/>
+      <c r="S313" s="2"/>
     </row>
     <row r="314">
-      <c r="O314" s="3"/>
+      <c r="P314" s="2"/>
+      <c r="S314" s="2"/>
     </row>
     <row r="315">
-      <c r="O315" s="3"/>
+      <c r="P315" s="2"/>
+      <c r="S315" s="2"/>
     </row>
     <row r="316">
-      <c r="O316" s="3"/>
+      <c r="P316" s="2"/>
+      <c r="S316" s="2"/>
     </row>
     <row r="317">
-      <c r="O317" s="3"/>
+      <c r="P317" s="2"/>
+      <c r="S317" s="2"/>
     </row>
     <row r="318">
-      <c r="O318" s="3"/>
+      <c r="P318" s="2"/>
+      <c r="S318" s="2"/>
     </row>
     <row r="319">
-      <c r="O319" s="3"/>
+      <c r="P319" s="2"/>
+      <c r="S319" s="2"/>
     </row>
     <row r="320">
-      <c r="O320" s="3"/>
+      <c r="P320" s="2"/>
+      <c r="S320" s="2"/>
     </row>
     <row r="321">
-      <c r="O321" s="3"/>
+      <c r="P321" s="2"/>
+      <c r="S321" s="2"/>
     </row>
     <row r="322">
-      <c r="O322" s="3"/>
+      <c r="P322" s="2"/>
+      <c r="S322" s="2"/>
     </row>
     <row r="323">
-      <c r="O323" s="3"/>
+      <c r="P323" s="2"/>
+      <c r="S323" s="2"/>
     </row>
     <row r="324">
-      <c r="O324" s="3"/>
+      <c r="P324" s="2"/>
+      <c r="S324" s="2"/>
     </row>
     <row r="325">
-      <c r="O325" s="3"/>
+      <c r="P325" s="2"/>
+      <c r="S325" s="2"/>
     </row>
     <row r="326">
-      <c r="O326" s="3"/>
+      <c r="P326" s="2"/>
+      <c r="S326" s="2"/>
     </row>
     <row r="327">
-      <c r="O327" s="3"/>
+      <c r="P327" s="2"/>
+      <c r="S327" s="2"/>
     </row>
     <row r="328">
-      <c r="O328" s="3"/>
+      <c r="P328" s="2"/>
+      <c r="S328" s="2"/>
     </row>
     <row r="329">
-      <c r="O329" s="3"/>
+      <c r="P329" s="2"/>
+      <c r="S329" s="2"/>
     </row>
     <row r="330">
-      <c r="O330" s="3"/>
+      <c r="P330" s="2"/>
+      <c r="S330" s="2"/>
     </row>
     <row r="331">
-      <c r="O331" s="3"/>
+      <c r="P331" s="2"/>
+      <c r="S331" s="2"/>
     </row>
     <row r="332">
-      <c r="O332" s="3"/>
+      <c r="P332" s="2"/>
+      <c r="S332" s="2"/>
     </row>
     <row r="333">
-      <c r="O333" s="3"/>
+      <c r="P333" s="2"/>
+      <c r="S333" s="2"/>
     </row>
     <row r="334">
-      <c r="O334" s="3"/>
+      <c r="P334" s="2"/>
+      <c r="S334" s="2"/>
     </row>
     <row r="335">
-      <c r="O335" s="3"/>
+      <c r="P335" s="2"/>
+      <c r="S335" s="2"/>
     </row>
     <row r="336">
-      <c r="O336" s="3"/>
+      <c r="P336" s="2"/>
+      <c r="S336" s="2"/>
     </row>
     <row r="337">
-      <c r="O337" s="3"/>
+      <c r="P337" s="2"/>
+      <c r="S337" s="2"/>
     </row>
     <row r="338">
-      <c r="O338" s="3"/>
+      <c r="P338" s="2"/>
+      <c r="S338" s="2"/>
     </row>
     <row r="339">
-      <c r="O339" s="3"/>
+      <c r="P339" s="2"/>
+      <c r="S339" s="2"/>
     </row>
     <row r="340">
-      <c r="O340" s="3"/>
+      <c r="P340" s="2"/>
+      <c r="S340" s="2"/>
     </row>
     <row r="341">
-      <c r="O341" s="3"/>
+      <c r="P341" s="2"/>
+      <c r="S341" s="2"/>
     </row>
     <row r="342">
-      <c r="O342" s="3"/>
+      <c r="P342" s="2"/>
+      <c r="S342" s="2"/>
     </row>
     <row r="343">
-      <c r="O343" s="3"/>
+      <c r="P343" s="2"/>
+      <c r="S343" s="2"/>
     </row>
     <row r="344">
-      <c r="O344" s="3"/>
+      <c r="P344" s="2"/>
+      <c r="S344" s="2"/>
     </row>
     <row r="345">
-      <c r="O345" s="3"/>
+      <c r="P345" s="2"/>
+      <c r="S345" s="2"/>
     </row>
     <row r="346">
-      <c r="O346" s="3"/>
+      <c r="P346" s="2"/>
+      <c r="S346" s="2"/>
     </row>
     <row r="347">
-      <c r="O347" s="3"/>
+      <c r="P347" s="2"/>
+      <c r="S347" s="2"/>
     </row>
     <row r="348">
-      <c r="O348" s="3"/>
+      <c r="P348" s="2"/>
+      <c r="S348" s="2"/>
     </row>
     <row r="349">
-      <c r="O349" s="3"/>
+      <c r="P349" s="2"/>
+      <c r="S349" s="2"/>
     </row>
     <row r="350">
-      <c r="O350" s="3"/>
+      <c r="P350" s="2"/>
+      <c r="S350" s="2"/>
     </row>
     <row r="351">
-      <c r="O351" s="3"/>
+      <c r="P351" s="2"/>
+      <c r="S351" s="2"/>
     </row>
     <row r="352">
-      <c r="O352" s="3"/>
+      <c r="P352" s="2"/>
+      <c r="S352" s="2"/>
     </row>
     <row r="353">
-      <c r="O353" s="3"/>
+      <c r="P353" s="2"/>
+      <c r="S353" s="2"/>
     </row>
     <row r="354">
-      <c r="O354" s="3"/>
+      <c r="P354" s="2"/>
+      <c r="S354" s="2"/>
     </row>
     <row r="355">
-      <c r="O355" s="3"/>
+      <c r="P355" s="2"/>
+      <c r="S355" s="2"/>
     </row>
     <row r="356">
-      <c r="O356" s="3"/>
+      <c r="P356" s="2"/>
+      <c r="S356" s="2"/>
     </row>
     <row r="357">
-      <c r="O357" s="3"/>
+      <c r="P357" s="2"/>
+      <c r="S357" s="2"/>
     </row>
     <row r="358">
-      <c r="O358" s="3"/>
+      <c r="P358" s="2"/>
+      <c r="S358" s="2"/>
     </row>
     <row r="359">
-      <c r="O359" s="3"/>
+      <c r="P359" s="2"/>
+      <c r="S359" s="2"/>
     </row>
     <row r="360">
-      <c r="O360" s="3"/>
+      <c r="P360" s="2"/>
+      <c r="S360" s="2"/>
     </row>
     <row r="361">
-      <c r="O361" s="3"/>
+      <c r="P361" s="2"/>
+      <c r="S361" s="2"/>
     </row>
     <row r="362">
-      <c r="O362" s="3"/>
+      <c r="P362" s="2"/>
+      <c r="S362" s="2"/>
     </row>
     <row r="363">
-      <c r="O363" s="3"/>
+      <c r="P363" s="2"/>
+      <c r="S363" s="2"/>
     </row>
     <row r="364">
-      <c r="O364" s="3"/>
+      <c r="P364" s="2"/>
+      <c r="S364" s="2"/>
     </row>
     <row r="365">
-      <c r="O365" s="3"/>
+      <c r="P365" s="2"/>
+      <c r="S365" s="2"/>
     </row>
     <row r="366">
-      <c r="O366" s="3"/>
+      <c r="P366" s="2"/>
+      <c r="S366" s="2"/>
     </row>
     <row r="367">
-      <c r="O367" s="3"/>
+      <c r="P367" s="2"/>
+      <c r="S367" s="2"/>
     </row>
     <row r="368">
-      <c r="O368" s="3"/>
+      <c r="P368" s="2"/>
+      <c r="S368" s="2"/>
     </row>
     <row r="369">
-      <c r="O369" s="3"/>
+      <c r="P369" s="2"/>
+      <c r="S369" s="2"/>
     </row>
     <row r="370">
-      <c r="O370" s="3"/>
+      <c r="P370" s="2"/>
+      <c r="S370" s="2"/>
     </row>
     <row r="371">
-      <c r="O371" s="3"/>
+      <c r="P371" s="2"/>
+      <c r="S371" s="2"/>
     </row>
     <row r="372">
-      <c r="O372" s="3"/>
+      <c r="P372" s="2"/>
+      <c r="S372" s="2"/>
     </row>
     <row r="373">
-      <c r="O373" s="3"/>
+      <c r="P373" s="2"/>
+      <c r="S373" s="2"/>
     </row>
     <row r="374">
-      <c r="O374" s="3"/>
+      <c r="P374" s="2"/>
+      <c r="S374" s="2"/>
     </row>
     <row r="375">
-      <c r="O375" s="3"/>
+      <c r="P375" s="2"/>
+      <c r="S375" s="2"/>
     </row>
     <row r="376">
-      <c r="O376" s="3"/>
+      <c r="P376" s="2"/>
+      <c r="S376" s="2"/>
     </row>
     <row r="377">
-      <c r="O377" s="3"/>
+      <c r="P377" s="2"/>
+      <c r="S377" s="2"/>
     </row>
     <row r="378">
-      <c r="O378" s="3"/>
+      <c r="P378" s="2"/>
+      <c r="S378" s="2"/>
     </row>
     <row r="379">
-      <c r="O379" s="3"/>
+      <c r="P379" s="2"/>
+      <c r="S379" s="2"/>
     </row>
     <row r="380">
-      <c r="O380" s="3"/>
+      <c r="P380" s="2"/>
+      <c r="S380" s="2"/>
     </row>
     <row r="381">
-      <c r="O381" s="3"/>
+      <c r="P381" s="2"/>
+      <c r="S381" s="2"/>
     </row>
     <row r="382">
-      <c r="O382" s="3"/>
+      <c r="P382" s="2"/>
+      <c r="S382" s="2"/>
     </row>
     <row r="383">
-      <c r="O383" s="3"/>
+      <c r="P383" s="2"/>
+      <c r="S383" s="2"/>
     </row>
     <row r="384">
-      <c r="O384" s="3"/>
+      <c r="P384" s="2"/>
+      <c r="S384" s="2"/>
     </row>
     <row r="385">
-      <c r="O385" s="3"/>
+      <c r="P385" s="2"/>
+      <c r="S385" s="2"/>
     </row>
     <row r="386">
-      <c r="O386" s="3"/>
+      <c r="P386" s="2"/>
+      <c r="S386" s="2"/>
     </row>
     <row r="387">
-      <c r="O387" s="3"/>
+      <c r="P387" s="2"/>
+      <c r="S387" s="2"/>
     </row>
     <row r="388">
-      <c r="O388" s="3"/>
+      <c r="P388" s="2"/>
+      <c r="S388" s="2"/>
     </row>
     <row r="389">
-      <c r="O389" s="3"/>
+      <c r="P389" s="2"/>
+      <c r="S389" s="2"/>
     </row>
     <row r="390">
-      <c r="O390" s="3"/>
+      <c r="P390" s="2"/>
+      <c r="S390" s="2"/>
     </row>
     <row r="391">
-      <c r="O391" s="3"/>
+      <c r="P391" s="2"/>
+      <c r="S391" s="2"/>
     </row>
     <row r="392">
-      <c r="O392" s="3"/>
+      <c r="P392" s="2"/>
+      <c r="S392" s="2"/>
     </row>
     <row r="393">
-      <c r="O393" s="3"/>
+      <c r="P393" s="2"/>
+      <c r="S393" s="2"/>
     </row>
     <row r="394">
-      <c r="O394" s="3"/>
+      <c r="P394" s="2"/>
+      <c r="S394" s="2"/>
     </row>
     <row r="395">
-      <c r="O395" s="3"/>
+      <c r="P395" s="2"/>
+      <c r="S395" s="2"/>
     </row>
     <row r="396">
-      <c r="O396" s="3"/>
+      <c r="P396" s="2"/>
+      <c r="S396" s="2"/>
     </row>
     <row r="397">
-      <c r="O397" s="3"/>
+      <c r="P397" s="2"/>
+      <c r="S397" s="2"/>
     </row>
     <row r="398">
-      <c r="O398" s="3"/>
+      <c r="P398" s="2"/>
+      <c r="S398" s="2"/>
     </row>
     <row r="399">
-      <c r="O399" s="3"/>
+      <c r="P399" s="2"/>
+      <c r="S399" s="2"/>
     </row>
     <row r="400">
-      <c r="O400" s="3"/>
+      <c r="P400" s="2"/>
+      <c r="S400" s="2"/>
     </row>
     <row r="401">
-      <c r="O401" s="3"/>
+      <c r="P401" s="2"/>
+      <c r="S401" s="2"/>
     </row>
     <row r="402">
-      <c r="O402" s="3"/>
+      <c r="P402" s="2"/>
+      <c r="S402" s="2"/>
     </row>
     <row r="403">
-      <c r="O403" s="3"/>
+      <c r="P403" s="2"/>
+      <c r="S403" s="2"/>
     </row>
     <row r="404">
-      <c r="O404" s="3"/>
+      <c r="P404" s="2"/>
+      <c r="S404" s="2"/>
     </row>
     <row r="405">
-      <c r="O405" s="3"/>
+      <c r="P405" s="2"/>
+      <c r="S405" s="2"/>
     </row>
     <row r="406">
-      <c r="O406" s="3"/>
+      <c r="P406" s="2"/>
+      <c r="S406" s="2"/>
     </row>
     <row r="407">
-      <c r="O407" s="3"/>
+      <c r="P407" s="2"/>
+      <c r="S407" s="2"/>
     </row>
     <row r="408">
-      <c r="O408" s="3"/>
+      <c r="P408" s="2"/>
+      <c r="S408" s="2"/>
     </row>
     <row r="409">
-      <c r="O409" s="3"/>
+      <c r="P409" s="2"/>
+      <c r="S409" s="2"/>
     </row>
     <row r="410">
-      <c r="O410" s="3"/>
+      <c r="P410" s="2"/>
+      <c r="S410" s="2"/>
     </row>
     <row r="411">
-      <c r="O411" s="3"/>
+      <c r="P411" s="2"/>
+      <c r="S411" s="2"/>
     </row>
     <row r="412">
-      <c r="O412" s="3"/>
+      <c r="P412" s="2"/>
+      <c r="S412" s="2"/>
     </row>
     <row r="413">
-      <c r="O413" s="3"/>
+      <c r="P413" s="2"/>
+      <c r="S413" s="2"/>
     </row>
     <row r="414">
-      <c r="O414" s="3"/>
+      <c r="P414" s="2"/>
+      <c r="S414" s="2"/>
     </row>
     <row r="415">
-      <c r="O415" s="3"/>
+      <c r="P415" s="2"/>
+      <c r="S415" s="2"/>
     </row>
     <row r="416">
-      <c r="O416" s="3"/>
+      <c r="P416" s="2"/>
+      <c r="S416" s="2"/>
     </row>
     <row r="417">
-      <c r="O417" s="3"/>
+      <c r="P417" s="2"/>
+      <c r="S417" s="2"/>
     </row>
     <row r="418">
-      <c r="O418" s="3"/>
+      <c r="P418" s="2"/>
+      <c r="S418" s="2"/>
     </row>
     <row r="419">
-      <c r="O419" s="3"/>
+      <c r="P419" s="2"/>
+      <c r="S419" s="2"/>
     </row>
     <row r="420">
-      <c r="O420" s="3"/>
+      <c r="P420" s="2"/>
+      <c r="S420" s="2"/>
     </row>
     <row r="421">
-      <c r="O421" s="3"/>
+      <c r="P421" s="2"/>
+      <c r="S421" s="2"/>
     </row>
     <row r="422">
-      <c r="O422" s="3"/>
+      <c r="P422" s="2"/>
+      <c r="S422" s="2"/>
     </row>
     <row r="423">
-      <c r="O423" s="3"/>
+      <c r="P423" s="2"/>
+      <c r="S423" s="2"/>
     </row>
     <row r="424">
-      <c r="O424" s="3"/>
+      <c r="P424" s="2"/>
+      <c r="S424" s="2"/>
     </row>
     <row r="425">
-      <c r="O425" s="3"/>
+      <c r="P425" s="2"/>
+      <c r="S425" s="2"/>
     </row>
     <row r="426">
-      <c r="O426" s="3"/>
+      <c r="P426" s="2"/>
+      <c r="S426" s="2"/>
     </row>
     <row r="427">
-      <c r="O427" s="3"/>
+      <c r="P427" s="2"/>
+      <c r="S427" s="2"/>
     </row>
     <row r="428">
-      <c r="O428" s="3"/>
+      <c r="P428" s="2"/>
+      <c r="S428" s="2"/>
     </row>
     <row r="429">
-      <c r="O429" s="3"/>
+      <c r="P429" s="2"/>
+      <c r="S429" s="2"/>
     </row>
     <row r="430">
-      <c r="O430" s="3"/>
+      <c r="P430" s="2"/>
+      <c r="S430" s="2"/>
     </row>
     <row r="431">
-      <c r="O431" s="3"/>
+      <c r="P431" s="2"/>
+      <c r="S431" s="2"/>
     </row>
     <row r="432">
-      <c r="O432" s="3"/>
+      <c r="P432" s="2"/>
+      <c r="S432" s="2"/>
     </row>
     <row r="433">
-      <c r="O433" s="3"/>
+      <c r="P433" s="2"/>
+      <c r="S433" s="2"/>
     </row>
     <row r="434">
-      <c r="O434" s="3"/>
+      <c r="P434" s="2"/>
+      <c r="S434" s="2"/>
     </row>
     <row r="435">
-      <c r="O435" s="3"/>
+      <c r="P435" s="2"/>
+      <c r="S435" s="2"/>
     </row>
     <row r="436">
-      <c r="O436" s="3"/>
+      <c r="P436" s="2"/>
+      <c r="S436" s="2"/>
     </row>
     <row r="437">
-      <c r="O437" s="3"/>
+      <c r="P437" s="2"/>
+      <c r="S437" s="2"/>
     </row>
     <row r="438">
-      <c r="O438" s="3"/>
+      <c r="P438" s="2"/>
+      <c r="S438" s="2"/>
     </row>
     <row r="439">
-      <c r="O439" s="3"/>
+      <c r="P439" s="2"/>
+      <c r="S439" s="2"/>
     </row>
     <row r="440">
-      <c r="O440" s="3"/>
+      <c r="P440" s="2"/>
+      <c r="S440" s="2"/>
     </row>
     <row r="441">
-      <c r="O441" s="3"/>
+      <c r="P441" s="2"/>
+      <c r="S441" s="2"/>
     </row>
     <row r="442">
-      <c r="O442" s="3"/>
+      <c r="P442" s="2"/>
+      <c r="S442" s="2"/>
     </row>
     <row r="443">
-      <c r="O443" s="3"/>
+      <c r="P443" s="2"/>
+      <c r="S443" s="2"/>
     </row>
     <row r="444">
-      <c r="O444" s="3"/>
+      <c r="P444" s="2"/>
+      <c r="S444" s="2"/>
     </row>
     <row r="445">
-      <c r="O445" s="3"/>
+      <c r="P445" s="2"/>
+      <c r="S445" s="2"/>
     </row>
     <row r="446">
-      <c r="O446" s="3"/>
+      <c r="P446" s="2"/>
+      <c r="S446" s="2"/>
     </row>
     <row r="447">
-      <c r="O447" s="3"/>
+      <c r="P447" s="2"/>
+      <c r="S447" s="2"/>
     </row>
     <row r="448">
-      <c r="O448" s="3"/>
+      <c r="P448" s="2"/>
+      <c r="S448" s="2"/>
     </row>
     <row r="449">
-      <c r="O449" s="3"/>
+      <c r="P449" s="2"/>
+      <c r="S449" s="2"/>
     </row>
     <row r="450">
-      <c r="O450" s="3"/>
+      <c r="P450" s="2"/>
+      <c r="S450" s="2"/>
     </row>
     <row r="451">
-      <c r="O451" s="3"/>
+      <c r="P451" s="2"/>
+      <c r="S451" s="2"/>
     </row>
     <row r="452">
-      <c r="O452" s="3"/>
+      <c r="P452" s="2"/>
+      <c r="S452" s="2"/>
     </row>
     <row r="453">
-      <c r="O453" s="3"/>
+      <c r="P453" s="2"/>
+      <c r="S453" s="2"/>
     </row>
     <row r="454">
-      <c r="O454" s="3"/>
+      <c r="P454" s="2"/>
+      <c r="S454" s="2"/>
     </row>
     <row r="455">
-      <c r="O455" s="3"/>
+      <c r="P455" s="2"/>
+      <c r="S455" s="2"/>
     </row>
     <row r="456">
-      <c r="O456" s="3"/>
+      <c r="P456" s="2"/>
+      <c r="S456" s="2"/>
     </row>
     <row r="457">
-      <c r="O457" s="3"/>
+      <c r="P457" s="2"/>
+      <c r="S457" s="2"/>
     </row>
     <row r="458">
-      <c r="O458" s="3"/>
+      <c r="P458" s="2"/>
+      <c r="S458" s="2"/>
     </row>
     <row r="459">
-      <c r="O459" s="3"/>
+      <c r="P459" s="2"/>
+      <c r="S459" s="2"/>
     </row>
     <row r="460">
-      <c r="O460" s="3"/>
+      <c r="P460" s="2"/>
+      <c r="S460" s="2"/>
     </row>
     <row r="461">
-      <c r="O461" s="3"/>
+      <c r="P461" s="2"/>
+      <c r="S461" s="2"/>
     </row>
     <row r="462">
-      <c r="O462" s="3"/>
+      <c r="P462" s="2"/>
+      <c r="S462" s="2"/>
     </row>
     <row r="463">
-      <c r="O463" s="3"/>
+      <c r="P463" s="2"/>
+      <c r="S463" s="2"/>
     </row>
     <row r="464">
-      <c r="O464" s="3"/>
+      <c r="P464" s="2"/>
+      <c r="S464" s="2"/>
     </row>
     <row r="465">
-      <c r="O465" s="3"/>
+      <c r="P465" s="2"/>
+      <c r="S465" s="2"/>
     </row>
     <row r="466">
-      <c r="O466" s="3"/>
+      <c r="P466" s="2"/>
+      <c r="S466" s="2"/>
     </row>
     <row r="467">
-      <c r="O467" s="3"/>
+      <c r="P467" s="2"/>
+      <c r="S467" s="2"/>
     </row>
     <row r="468">
-      <c r="O468" s="3"/>
+      <c r="P468" s="2"/>
+      <c r="S468" s="2"/>
     </row>
     <row r="469">
-      <c r="O469" s="3"/>
+      <c r="P469" s="2"/>
+      <c r="S469" s="2"/>
     </row>
     <row r="470">
-      <c r="O470" s="3"/>
+      <c r="P470" s="2"/>
+      <c r="S470" s="2"/>
     </row>
     <row r="471">
-      <c r="O471" s="3"/>
+      <c r="P471" s="2"/>
+      <c r="S471" s="2"/>
     </row>
     <row r="472">
-      <c r="O472" s="3"/>
+      <c r="P472" s="2"/>
+      <c r="S472" s="2"/>
     </row>
     <row r="473">
-      <c r="O473" s="3"/>
+      <c r="P473" s="2"/>
+      <c r="S473" s="2"/>
     </row>
     <row r="474">
-      <c r="O474" s="3"/>
+      <c r="P474" s="2"/>
+      <c r="S474" s="2"/>
     </row>
     <row r="475">
-      <c r="O475" s="3"/>
+      <c r="P475" s="2"/>
+      <c r="S475" s="2"/>
     </row>
     <row r="476">
-      <c r="O476" s="3"/>
+      <c r="P476" s="2"/>
+      <c r="S476" s="2"/>
     </row>
     <row r="477">
-      <c r="O477" s="3"/>
+      <c r="P477" s="2"/>
+      <c r="S477" s="2"/>
     </row>
     <row r="478">
-      <c r="O478" s="3"/>
+      <c r="P478" s="2"/>
+      <c r="S478" s="2"/>
     </row>
     <row r="479">
-      <c r="O479" s="3"/>
+      <c r="P479" s="2"/>
+      <c r="S479" s="2"/>
     </row>
     <row r="480">
-      <c r="O480" s="3"/>
+      <c r="P480" s="2"/>
+      <c r="S480" s="2"/>
     </row>
     <row r="481">
-      <c r="O481" s="3"/>
+      <c r="P481" s="2"/>
+      <c r="S481" s="2"/>
     </row>
     <row r="482">
-      <c r="O482" s="3"/>
+      <c r="P482" s="2"/>
+      <c r="S482" s="2"/>
     </row>
     <row r="483">
-      <c r="O483" s="3"/>
+      <c r="P483" s="2"/>
+      <c r="S483" s="2"/>
     </row>
     <row r="484">
-      <c r="O484" s="3"/>
+      <c r="P484" s="2"/>
+      <c r="S484" s="2"/>
     </row>
     <row r="485">
-      <c r="O485" s="3"/>
+      <c r="P485" s="2"/>
+      <c r="S485" s="2"/>
     </row>
     <row r="486">
-      <c r="O486" s="3"/>
+      <c r="P486" s="2"/>
+      <c r="S486" s="2"/>
     </row>
     <row r="487">
-      <c r="O487" s="3"/>
+      <c r="P487" s="2"/>
+      <c r="S487" s="2"/>
     </row>
     <row r="488">
-      <c r="O488" s="3"/>
+      <c r="P488" s="2"/>
+      <c r="S488" s="2"/>
     </row>
     <row r="489">
-      <c r="O489" s="3"/>
+      <c r="P489" s="2"/>
+      <c r="S489" s="2"/>
     </row>
     <row r="490">
-      <c r="O490" s="3"/>
+      <c r="P490" s="2"/>
+      <c r="S490" s="2"/>
     </row>
     <row r="491">
-      <c r="O491" s="3"/>
+      <c r="P491" s="2"/>
+      <c r="S491" s="2"/>
     </row>
     <row r="492">
-      <c r="O492" s="3"/>
+      <c r="P492" s="2"/>
+      <c r="S492" s="2"/>
     </row>
     <row r="493">
-      <c r="O493" s="3"/>
+      <c r="P493" s="2"/>
+      <c r="S493" s="2"/>
     </row>
     <row r="494">
-      <c r="O494" s="3"/>
+      <c r="P494" s="2"/>
+      <c r="S494" s="2"/>
     </row>
     <row r="495">
-      <c r="O495" s="3"/>
+      <c r="P495" s="2"/>
+      <c r="S495" s="2"/>
     </row>
     <row r="496">
-      <c r="O496" s="3"/>
+      <c r="P496" s="2"/>
+      <c r="S496" s="2"/>
     </row>
     <row r="497">
-      <c r="O497" s="3"/>
+      <c r="P497" s="2"/>
+      <c r="S497" s="2"/>
     </row>
     <row r="498">
-      <c r="O498" s="3"/>
+      <c r="P498" s="2"/>
+      <c r="S498" s="2"/>
     </row>
     <row r="499">
-      <c r="O499" s="3"/>
+      <c r="P499" s="2"/>
+      <c r="S499" s="2"/>
     </row>
     <row r="500">
-      <c r="O500" s="3"/>
+      <c r="P500" s="2"/>
+      <c r="S500" s="2"/>
     </row>
     <row r="501">
-      <c r="O501" s="3"/>
+      <c r="P501" s="2"/>
+      <c r="S501" s="2"/>
     </row>
     <row r="502">
-      <c r="O502" s="3"/>
+      <c r="P502" s="2"/>
+      <c r="S502" s="2"/>
     </row>
     <row r="503">
-      <c r="O503" s="3"/>
+      <c r="P503" s="2"/>
+      <c r="S503" s="2"/>
     </row>
     <row r="504">
-      <c r="O504" s="3"/>
+      <c r="P504" s="2"/>
+      <c r="S504" s="2"/>
     </row>
     <row r="505">
-      <c r="O505" s="3"/>
+      <c r="P505" s="2"/>
+      <c r="S505" s="2"/>
     </row>
     <row r="506">
-      <c r="O506" s="3"/>
+      <c r="P506" s="2"/>
+      <c r="S506" s="2"/>
     </row>
     <row r="507">
-      <c r="O507" s="3"/>
+      <c r="P507" s="2"/>
+      <c r="S507" s="2"/>
     </row>
     <row r="508">
-      <c r="O508" s="3"/>
+      <c r="P508" s="2"/>
+      <c r="S508" s="2"/>
     </row>
     <row r="509">
-      <c r="O509" s="3"/>
+      <c r="P509" s="2"/>
+      <c r="S509" s="2"/>
     </row>
     <row r="510">
-      <c r="O510" s="3"/>
+      <c r="P510" s="2"/>
+      <c r="S510" s="2"/>
     </row>
     <row r="511">
-      <c r="O511" s="3"/>
+      <c r="P511" s="2"/>
+      <c r="S511" s="2"/>
     </row>
     <row r="512">
-      <c r="O512" s="3"/>
+      <c r="P512" s="2"/>
+      <c r="S512" s="2"/>
     </row>
     <row r="513">
-      <c r="O513" s="3"/>
+      <c r="P513" s="2"/>
+      <c r="S513" s="2"/>
     </row>
     <row r="514">
-      <c r="O514" s="3"/>
+      <c r="P514" s="2"/>
+      <c r="S514" s="2"/>
     </row>
     <row r="515">
-      <c r="O515" s="3"/>
+      <c r="P515" s="2"/>
+      <c r="S515" s="2"/>
     </row>
     <row r="516">
-      <c r="O516" s="3"/>
+      <c r="P516" s="2"/>
+      <c r="S516" s="2"/>
     </row>
     <row r="517">
-      <c r="O517" s="3"/>
+      <c r="P517" s="2"/>
+      <c r="S517" s="2"/>
     </row>
     <row r="518">
-      <c r="O518" s="3"/>
+      <c r="P518" s="2"/>
+      <c r="S518" s="2"/>
     </row>
     <row r="519">
-      <c r="O519" s="3"/>
+      <c r="P519" s="2"/>
+      <c r="S519" s="2"/>
     </row>
     <row r="520">
-      <c r="O520" s="3"/>
+      <c r="P520" s="2"/>
+      <c r="S520" s="2"/>
     </row>
     <row r="521">
-      <c r="O521" s="3"/>
+      <c r="P521" s="2"/>
+      <c r="S521" s="2"/>
     </row>
     <row r="522">
-      <c r="O522" s="3"/>
+      <c r="P522" s="2"/>
+      <c r="S522" s="2"/>
     </row>
     <row r="523">
-      <c r="O523" s="3"/>
+      <c r="P523" s="2"/>
+      <c r="S523" s="2"/>
     </row>
     <row r="524">
-      <c r="O524" s="3"/>
+      <c r="P524" s="2"/>
+      <c r="S524" s="2"/>
     </row>
     <row r="525">
-      <c r="O525" s="3"/>
+      <c r="P525" s="2"/>
+      <c r="S525" s="2"/>
     </row>
     <row r="526">
-      <c r="O526" s="3"/>
+      <c r="P526" s="2"/>
+      <c r="S526" s="2"/>
     </row>
     <row r="527">
-      <c r="O527" s="3"/>
+      <c r="P527" s="2"/>
+      <c r="S527" s="2"/>
     </row>
     <row r="528">
-      <c r="O528" s="3"/>
+      <c r="P528" s="2"/>
+      <c r="S528" s="2"/>
     </row>
     <row r="529">
-      <c r="O529" s="3"/>
+      <c r="P529" s="2"/>
+      <c r="S529" s="2"/>
     </row>
     <row r="530">
-      <c r="O530" s="3"/>
+      <c r="P530" s="2"/>
+      <c r="S530" s="2"/>
     </row>
     <row r="531">
-      <c r="O531" s="3"/>
+      <c r="P531" s="2"/>
+      <c r="S531" s="2"/>
     </row>
     <row r="532">
-      <c r="O532" s="3"/>
+      <c r="P532" s="2"/>
+      <c r="S532" s="2"/>
     </row>
     <row r="533">
-      <c r="O533" s="3"/>
+      <c r="P533" s="2"/>
+      <c r="S533" s="2"/>
     </row>
     <row r="534">
-      <c r="O534" s="3"/>
+      <c r="P534" s="2"/>
+      <c r="S534" s="2"/>
     </row>
     <row r="535">
-      <c r="O535" s="3"/>
+      <c r="P535" s="2"/>
+      <c r="S535" s="2"/>
     </row>
     <row r="536">
-      <c r="O536" s="3"/>
+      <c r="P536" s="2"/>
+      <c r="S536" s="2"/>
     </row>
     <row r="537">
-      <c r="O537" s="3"/>
+      <c r="P537" s="2"/>
+      <c r="S537" s="2"/>
     </row>
     <row r="538">
-      <c r="O538" s="3"/>
+      <c r="P538" s="2"/>
+      <c r="S538" s="2"/>
     </row>
     <row r="539">
-      <c r="O539" s="3"/>
+      <c r="P539" s="2"/>
+      <c r="S539" s="2"/>
     </row>
     <row r="540">
-      <c r="O540" s="3"/>
+      <c r="P540" s="2"/>
+      <c r="S540" s="2"/>
     </row>
     <row r="541">
-      <c r="O541" s="3"/>
+      <c r="P541" s="2"/>
+      <c r="S541" s="2"/>
     </row>
     <row r="542">
-      <c r="O542" s="3"/>
+      <c r="P542" s="2"/>
+      <c r="S542" s="2"/>
     </row>
     <row r="543">
-      <c r="O543" s="3"/>
+      <c r="P543" s="2"/>
+      <c r="S543" s="2"/>
     </row>
     <row r="544">
-      <c r="O544" s="3"/>
+      <c r="P544" s="2"/>
+      <c r="S544" s="2"/>
     </row>
     <row r="545">
-      <c r="O545" s="3"/>
+      <c r="P545" s="2"/>
+      <c r="S545" s="2"/>
     </row>
     <row r="546">
-      <c r="O546" s="3"/>
+      <c r="P546" s="2"/>
+      <c r="S546" s="2"/>
     </row>
     <row r="547">
-      <c r="O547" s="3"/>
+      <c r="P547" s="2"/>
+      <c r="S547" s="2"/>
     </row>
     <row r="548">
-      <c r="O548" s="3"/>
+      <c r="P548" s="2"/>
+      <c r="S548" s="2"/>
     </row>
     <row r="549">
-      <c r="O549" s="3"/>
+      <c r="P549" s="2"/>
+      <c r="S549" s="2"/>
     </row>
     <row r="550">
-      <c r="O550" s="3"/>
+      <c r="P550" s="2"/>
+      <c r="S550" s="2"/>
     </row>
     <row r="551">
-      <c r="O551" s="3"/>
+      <c r="P551" s="2"/>
+      <c r="S551" s="2"/>
     </row>
     <row r="552">
-      <c r="O552" s="3"/>
+      <c r="P552" s="2"/>
+      <c r="S552" s="2"/>
     </row>
     <row r="553">
-      <c r="O553" s="3"/>
+      <c r="P553" s="2"/>
+      <c r="S553" s="2"/>
     </row>
     <row r="554">
-      <c r="O554" s="3"/>
+      <c r="P554" s="2"/>
+      <c r="S554" s="2"/>
     </row>
     <row r="555">
-      <c r="O555" s="3"/>
+      <c r="P555" s="2"/>
+      <c r="S555" s="2"/>
     </row>
     <row r="556">
-      <c r="O556" s="3"/>
+      <c r="P556" s="2"/>
+      <c r="S556" s="2"/>
     </row>
     <row r="557">
-      <c r="O557" s="3"/>
+      <c r="P557" s="2"/>
+      <c r="S557" s="2"/>
     </row>
     <row r="558">
-      <c r="O558" s="3"/>
+      <c r="P558" s="2"/>
+      <c r="S558" s="2"/>
     </row>
     <row r="559">
-      <c r="O559" s="3"/>
+      <c r="P559" s="2"/>
+      <c r="S559" s="2"/>
     </row>
     <row r="560">
-      <c r="O560" s="3"/>
+      <c r="P560" s="2"/>
+      <c r="S560" s="2"/>
     </row>
     <row r="561">
-      <c r="O561" s="3"/>
+      <c r="P561" s="2"/>
+      <c r="S561" s="2"/>
     </row>
     <row r="562">
-      <c r="O562" s="3"/>
+      <c r="P562" s="2"/>
+      <c r="S562" s="2"/>
     </row>
     <row r="563">
-      <c r="O563" s="3"/>
+      <c r="P563" s="2"/>
+      <c r="S563" s="2"/>
     </row>
     <row r="564">
-      <c r="O564" s="3"/>
+      <c r="P564" s="2"/>
+      <c r="S564" s="2"/>
     </row>
     <row r="565">
-      <c r="O565" s="3"/>
+      <c r="P565" s="2"/>
+      <c r="S565" s="2"/>
     </row>
     <row r="566">
-      <c r="O566" s="3"/>
+      <c r="P566" s="2"/>
+      <c r="S566" s="2"/>
     </row>
     <row r="567">
-      <c r="O567" s="3"/>
+      <c r="P567" s="2"/>
+      <c r="S567" s="2"/>
     </row>
     <row r="568">
-      <c r="O568" s="3"/>
+      <c r="P568" s="2"/>
+      <c r="S568" s="2"/>
     </row>
     <row r="569">
-      <c r="O569" s="3"/>
+      <c r="P569" s="2"/>
+      <c r="S569" s="2"/>
     </row>
     <row r="570">
-      <c r="O570" s="3"/>
+      <c r="P570" s="2"/>
+      <c r="S570" s="2"/>
     </row>
     <row r="571">
-      <c r="O571" s="3"/>
+      <c r="P571" s="2"/>
+      <c r="S571" s="2"/>
     </row>
     <row r="572">
-      <c r="O572" s="3"/>
+      <c r="P572" s="2"/>
+      <c r="S572" s="2"/>
     </row>
     <row r="573">
-      <c r="O573" s="3"/>
+      <c r="P573" s="2"/>
+      <c r="S573" s="2"/>
     </row>
     <row r="574">
-      <c r="O574" s="3"/>
+      <c r="P574" s="2"/>
+      <c r="S574" s="2"/>
     </row>
     <row r="575">
-      <c r="O575" s="3"/>
+      <c r="P575" s="2"/>
+      <c r="S575" s="2"/>
     </row>
     <row r="576">
-      <c r="O576" s="3"/>
+      <c r="P576" s="2"/>
+      <c r="S576" s="2"/>
     </row>
     <row r="577">
-      <c r="O577" s="3"/>
+      <c r="P577" s="2"/>
+      <c r="S577" s="2"/>
     </row>
     <row r="578">
-      <c r="O578" s="3"/>
+      <c r="P578" s="2"/>
+      <c r="S578" s="2"/>
     </row>
     <row r="579">
-      <c r="O579" s="3"/>
+      <c r="P579" s="2"/>
+      <c r="S579" s="2"/>
     </row>
     <row r="580">
-      <c r="O580" s="3"/>
+      <c r="P580" s="2"/>
+      <c r="S580" s="2"/>
     </row>
     <row r="581">
-      <c r="O581" s="3"/>
+      <c r="P581" s="2"/>
+      <c r="S581" s="2"/>
     </row>
     <row r="582">
-      <c r="O582" s="3"/>
+      <c r="P582" s="2"/>
+      <c r="S582" s="2"/>
     </row>
     <row r="583">
-      <c r="O583" s="3"/>
+      <c r="P583" s="2"/>
+      <c r="S583" s="2"/>
     </row>
     <row r="584">
-      <c r="O584" s="3"/>
+      <c r="P584" s="2"/>
+      <c r="S584" s="2"/>
     </row>
     <row r="585">
-      <c r="O585" s="3"/>
+      <c r="P585" s="2"/>
+      <c r="S585" s="2"/>
     </row>
     <row r="586">
-      <c r="O586" s="3"/>
+      <c r="P586" s="2"/>
+      <c r="S586" s="2"/>
     </row>
     <row r="587">
-      <c r="O587" s="3"/>
+      <c r="P587" s="2"/>
+      <c r="S587" s="2"/>
     </row>
     <row r="588">
-      <c r="O588" s="3"/>
+      <c r="P588" s="2"/>
+      <c r="S588" s="2"/>
     </row>
     <row r="589">
-      <c r="O589" s="3"/>
+      <c r="P589" s="2"/>
+      <c r="S589" s="2"/>
     </row>
     <row r="590">
-      <c r="O590" s="3"/>
+      <c r="P590" s="2"/>
+      <c r="S590" s="2"/>
     </row>
     <row r="591">
-      <c r="O591" s="3"/>
+      <c r="P591" s="2"/>
+      <c r="S591" s="2"/>
     </row>
     <row r="592">
-      <c r="O592" s="3"/>
+      <c r="P592" s="2"/>
+      <c r="S592" s="2"/>
     </row>
     <row r="593">
-      <c r="O593" s="3"/>
+      <c r="P593" s="2"/>
+      <c r="S593" s="2"/>
     </row>
     <row r="594">
-      <c r="O594" s="3"/>
+      <c r="P594" s="2"/>
+      <c r="S594" s="2"/>
     </row>
     <row r="595">
-      <c r="O595" s="3"/>
+      <c r="P595" s="2"/>
+      <c r="S595" s="2"/>
     </row>
     <row r="596">
-      <c r="O596" s="3"/>
+      <c r="P596" s="2"/>
+      <c r="S596" s="2"/>
     </row>
     <row r="597">
-      <c r="O597" s="3"/>
+      <c r="P597" s="2"/>
+      <c r="S597" s="2"/>
     </row>
     <row r="598">
-      <c r="O598" s="3"/>
+      <c r="P598" s="2"/>
+      <c r="S598" s="2"/>
     </row>
     <row r="599">
-      <c r="O599" s="3"/>
+      <c r="P599" s="2"/>
+      <c r="S599" s="2"/>
     </row>
     <row r="600">
-      <c r="O600" s="3"/>
+      <c r="P600" s="2"/>
+      <c r="S600" s="2"/>
     </row>
     <row r="601">
-      <c r="O601" s="3"/>
+      <c r="P601" s="2"/>
+      <c r="S601" s="2"/>
     </row>
     <row r="602">
-      <c r="O602" s="3"/>
+      <c r="P602" s="2"/>
+      <c r="S602" s="2"/>
     </row>
     <row r="603">
-      <c r="O603" s="3"/>
+      <c r="P603" s="2"/>
+      <c r="S603" s="2"/>
     </row>
     <row r="604">
-      <c r="O604" s="3"/>
+      <c r="P604" s="2"/>
+      <c r="S604" s="2"/>
     </row>
     <row r="605">
-      <c r="O605" s="3"/>
+      <c r="P605" s="2"/>
+      <c r="S605" s="2"/>
     </row>
     <row r="606">
-      <c r="O606" s="3"/>
+      <c r="P606" s="2"/>
+      <c r="S606" s="2"/>
     </row>
     <row r="607">
-      <c r="O607" s="3"/>
+      <c r="P607" s="2"/>
+      <c r="S607" s="2"/>
     </row>
     <row r="608">
-      <c r="O608" s="3"/>
+      <c r="P608" s="2"/>
+      <c r="S608" s="2"/>
     </row>
     <row r="609">
-      <c r="O609" s="3"/>
+      <c r="P609" s="2"/>
+      <c r="S609" s="2"/>
     </row>
     <row r="610">
-      <c r="O610" s="3"/>
+      <c r="P610" s="2"/>
+      <c r="S610" s="2"/>
     </row>
     <row r="611">
-      <c r="O611" s="3"/>
+      <c r="P611" s="2"/>
+      <c r="S611" s="2"/>
     </row>
     <row r="612">
-      <c r="O612" s="3"/>
+      <c r="P612" s="2"/>
+      <c r="S612" s="2"/>
     </row>
     <row r="613">
-      <c r="O613" s="3"/>
+      <c r="P613" s="2"/>
+      <c r="S613" s="2"/>
     </row>
     <row r="614">
-      <c r="O614" s="3"/>
+      <c r="P614" s="2"/>
+      <c r="S614" s="2"/>
     </row>
     <row r="615">
-      <c r="O615" s="3"/>
+      <c r="P615" s="2"/>
+      <c r="S615" s="2"/>
     </row>
     <row r="616">
-      <c r="O616" s="3"/>
+      <c r="P616" s="2"/>
+      <c r="S616" s="2"/>
     </row>
     <row r="617">
-      <c r="O617" s="3"/>
+      <c r="P617" s="2"/>
+      <c r="S617" s="2"/>
     </row>
     <row r="618">
-      <c r="O618" s="3"/>
+      <c r="P618" s="2"/>
+      <c r="S618" s="2"/>
     </row>
     <row r="619">
-      <c r="O619" s="3"/>
+      <c r="P619" s="2"/>
+      <c r="S619" s="2"/>
     </row>
     <row r="620">
-      <c r="O620" s="3"/>
+      <c r="P620" s="2"/>
+      <c r="S620" s="2"/>
     </row>
     <row r="621">
-      <c r="O621" s="3"/>
+      <c r="P621" s="2"/>
+      <c r="S621" s="2"/>
     </row>
     <row r="622">
-      <c r="O622" s="3"/>
+      <c r="P622" s="2"/>
+      <c r="S622" s="2"/>
     </row>
     <row r="623">
-      <c r="O623" s="3"/>
+      <c r="P623" s="2"/>
+      <c r="S623" s="2"/>
     </row>
     <row r="624">
-      <c r="O624" s="3"/>
+      <c r="P624" s="2"/>
+      <c r="S624" s="2"/>
     </row>
     <row r="625">
-      <c r="O625" s="3"/>
+      <c r="P625" s="2"/>
+      <c r="S625" s="2"/>
     </row>
     <row r="626">
-      <c r="O626" s="3"/>
+      <c r="P626" s="2"/>
+      <c r="S626" s="2"/>
     </row>
     <row r="627">
-      <c r="O627" s="3"/>
+      <c r="P627" s="2"/>
+      <c r="S627" s="2"/>
     </row>
     <row r="628">
-      <c r="O628" s="3"/>
+      <c r="P628" s="2"/>
+      <c r="S628" s="2"/>
     </row>
     <row r="629">
-      <c r="O629" s="3"/>
+      <c r="P629" s="2"/>
+      <c r="S629" s="2"/>
     </row>
     <row r="630">
-      <c r="O630" s="3"/>
+      <c r="P630" s="2"/>
+      <c r="S630" s="2"/>
     </row>
     <row r="631">
-      <c r="O631" s="3"/>
+      <c r="P631" s="2"/>
+      <c r="S631" s="2"/>
     </row>
     <row r="632">
-      <c r="O632" s="3"/>
+      <c r="P632" s="2"/>
+      <c r="S632" s="2"/>
     </row>
     <row r="633">
-      <c r="O633" s="3"/>
+      <c r="P633" s="2"/>
+      <c r="S633" s="2"/>
     </row>
     <row r="634">
-      <c r="O634" s="3"/>
+      <c r="P634" s="2"/>
+      <c r="S634" s="2"/>
     </row>
     <row r="635">
-      <c r="O635" s="3"/>
+      <c r="P635" s="2"/>
+      <c r="S635" s="2"/>
     </row>
     <row r="636">
-      <c r="O636" s="3"/>
+      <c r="P636" s="2"/>
+      <c r="S636" s="2"/>
     </row>
     <row r="637">
-      <c r="O637" s="3"/>
+      <c r="P637" s="2"/>
+      <c r="S637" s="2"/>
     </row>
     <row r="638">
-      <c r="O638" s="3"/>
+      <c r="P638" s="2"/>
+      <c r="S638" s="2"/>
     </row>
     <row r="639">
-      <c r="O639" s="3"/>
+      <c r="P639" s="2"/>
+      <c r="S639" s="2"/>
     </row>
     <row r="640">
-      <c r="O640" s="3"/>
+      <c r="P640" s="2"/>
+      <c r="S640" s="2"/>
     </row>
     <row r="641">
-      <c r="O641" s="3"/>
+      <c r="P641" s="2"/>
+      <c r="S641" s="2"/>
     </row>
     <row r="642">
-      <c r="O642" s="3"/>
+      <c r="P642" s="2"/>
+      <c r="S642" s="2"/>
     </row>
     <row r="643">
-      <c r="O643" s="3"/>
+      <c r="P643" s="2"/>
+      <c r="S643" s="2"/>
     </row>
     <row r="644">
-      <c r="O644" s="3"/>
+      <c r="P644" s="2"/>
+      <c r="S644" s="2"/>
     </row>
     <row r="645">
-      <c r="O645" s="3"/>
+      <c r="P645" s="2"/>
+      <c r="S645" s="2"/>
     </row>
     <row r="646">
-      <c r="O646" s="3"/>
+      <c r="P646" s="2"/>
+      <c r="S646" s="2"/>
     </row>
     <row r="647">
-      <c r="O647" s="3"/>
+      <c r="P647" s="2"/>
+      <c r="S647" s="2"/>
     </row>
     <row r="648">
-      <c r="O648" s="3"/>
+      <c r="P648" s="2"/>
+      <c r="S648" s="2"/>
     </row>
     <row r="649">
-      <c r="O649" s="3"/>
+      <c r="P649" s="2"/>
+      <c r="S649" s="2"/>
     </row>
     <row r="650">
-      <c r="O650" s="3"/>
+      <c r="P650" s="2"/>
+      <c r="S650" s="2"/>
     </row>
     <row r="651">
-      <c r="O651" s="3"/>
+      <c r="P651" s="2"/>
+      <c r="S651" s="2"/>
     </row>
     <row r="652">
-      <c r="O652" s="3"/>
+      <c r="P652" s="2"/>
+      <c r="S652" s="2"/>
     </row>
     <row r="653">
-      <c r="O653" s="3"/>
+      <c r="P653" s="2"/>
+      <c r="S653" s="2"/>
     </row>
     <row r="654">
-      <c r="O654" s="3"/>
+      <c r="P654" s="2"/>
+      <c r="S654" s="2"/>
     </row>
     <row r="655">
-      <c r="O655" s="3"/>
+      <c r="P655" s="2"/>
+      <c r="S655" s="2"/>
     </row>
     <row r="656">
-      <c r="O656" s="3"/>
+      <c r="P656" s="2"/>
+      <c r="S656" s="2"/>
     </row>
     <row r="657">
-      <c r="O657" s="3"/>
+      <c r="P657" s="2"/>
+      <c r="S657" s="2"/>
     </row>
     <row r="658">
-      <c r="O658" s="3"/>
+      <c r="P658" s="2"/>
+      <c r="S658" s="2"/>
     </row>
     <row r="659">
-      <c r="O659" s="3"/>
+      <c r="P659" s="2"/>
+      <c r="S659" s="2"/>
     </row>
     <row r="660">
-      <c r="O660" s="3"/>
+      <c r="P660" s="2"/>
+      <c r="S660" s="2"/>
     </row>
     <row r="661">
-      <c r="O661" s="3"/>
+      <c r="P661" s="2"/>
+      <c r="S661" s="2"/>
     </row>
     <row r="662">
-      <c r="O662" s="3"/>
+      <c r="P662" s="2"/>
+      <c r="S662" s="2"/>
     </row>
     <row r="663">
-      <c r="O663" s="3"/>
+      <c r="P663" s="2"/>
+      <c r="S663" s="2"/>
     </row>
     <row r="664">
-      <c r="O664" s="3"/>
+      <c r="P664" s="2"/>
+      <c r="S664" s="2"/>
     </row>
     <row r="665">
-      <c r="O665" s="3"/>
+      <c r="P665" s="2"/>
+      <c r="S665" s="2"/>
     </row>
     <row r="666">
-      <c r="O666" s="3"/>
+      <c r="P666" s="2"/>
+      <c r="S666" s="2"/>
     </row>
     <row r="667">
-      <c r="O667" s="3"/>
+      <c r="P667" s="2"/>
+      <c r="S667" s="2"/>
     </row>
     <row r="668">
-      <c r="O668" s="3"/>
+      <c r="P668" s="2"/>
+      <c r="S668" s="2"/>
     </row>
     <row r="669">
-      <c r="O669" s="3"/>
+      <c r="P669" s="2"/>
+      <c r="S669" s="2"/>
     </row>
     <row r="670">
-      <c r="O670" s="3"/>
+      <c r="P670" s="2"/>
+      <c r="S670" s="2"/>
     </row>
     <row r="671">
-      <c r="O671" s="3"/>
+      <c r="P671" s="2"/>
+      <c r="S671" s="2"/>
     </row>
     <row r="672">
-      <c r="O672" s="3"/>
+      <c r="P672" s="2"/>
+      <c r="S672" s="2"/>
     </row>
     <row r="673">
-      <c r="O673" s="3"/>
+      <c r="P673" s="2"/>
+      <c r="S673" s="2"/>
     </row>
     <row r="674">
-      <c r="O674" s="3"/>
+      <c r="P674" s="2"/>
+      <c r="S674" s="2"/>
     </row>
     <row r="675">
-      <c r="O675" s="3"/>
+      <c r="P675" s="2"/>
+      <c r="S675" s="2"/>
     </row>
     <row r="676">
-      <c r="O676" s="3"/>
+      <c r="P676" s="2"/>
+      <c r="S676" s="2"/>
     </row>
     <row r="677">
-      <c r="O677" s="3"/>
+      <c r="P677" s="2"/>
+      <c r="S677" s="2"/>
     </row>
     <row r="678">
-      <c r="O678" s="3"/>
+      <c r="P678" s="2"/>
+      <c r="S678" s="2"/>
     </row>
     <row r="679">
-      <c r="O679" s="3"/>
+      <c r="P679" s="2"/>
+      <c r="S679" s="2"/>
     </row>
     <row r="680">
-      <c r="O680" s="3"/>
+      <c r="P680" s="2"/>
+      <c r="S680" s="2"/>
     </row>
     <row r="681">
-      <c r="O681" s="3"/>
+      <c r="P681" s="2"/>
+      <c r="S681" s="2"/>
     </row>
     <row r="682">
-      <c r="O682" s="3"/>
+      <c r="P682" s="2"/>
+      <c r="S682" s="2"/>
     </row>
     <row r="683">
-      <c r="O683" s="3"/>
+      <c r="P683" s="2"/>
+      <c r="S683" s="2"/>
     </row>
     <row r="684">
-      <c r="O684" s="3"/>
+      <c r="P684" s="2"/>
+      <c r="S684" s="2"/>
     </row>
     <row r="685">
-      <c r="O685" s="3"/>
+      <c r="P685" s="2"/>
+      <c r="S685" s="2"/>
     </row>
     <row r="686">
-      <c r="O686" s="3"/>
+      <c r="P686" s="2"/>
+      <c r="S686" s="2"/>
     </row>
     <row r="687">
-      <c r="O687" s="3"/>
+      <c r="P687" s="2"/>
+      <c r="S687" s="2"/>
     </row>
     <row r="688">
-      <c r="O688" s="3"/>
+      <c r="P688" s="2"/>
+      <c r="S688" s="2"/>
     </row>
     <row r="689">
-      <c r="O689" s="3"/>
+      <c r="P689" s="2"/>
+      <c r="S689" s="2"/>
     </row>
     <row r="690">
-      <c r="O690" s="3"/>
+      <c r="P690" s="2"/>
+      <c r="S690" s="2"/>
     </row>
     <row r="691">
-      <c r="O691" s="3"/>
+      <c r="P691" s="2"/>
+      <c r="S691" s="2"/>
     </row>
     <row r="692">
-      <c r="O692" s="3"/>
+      <c r="P692" s="2"/>
+      <c r="S692" s="2"/>
     </row>
     <row r="693">
-      <c r="O693" s="3"/>
+      <c r="P693" s="2"/>
+      <c r="S693" s="2"/>
     </row>
     <row r="694">
-      <c r="O694" s="3"/>
+      <c r="P694" s="2"/>
+      <c r="S694" s="2"/>
     </row>
     <row r="695">
-      <c r="O695" s="3"/>
+      <c r="P695" s="2"/>
+      <c r="S695" s="2"/>
     </row>
     <row r="696">
-      <c r="O696" s="3"/>
+      <c r="P696" s="2"/>
+      <c r="S696" s="2"/>
     </row>
     <row r="697">
-      <c r="O697" s="3"/>
+      <c r="P697" s="2"/>
+      <c r="S697" s="2"/>
     </row>
     <row r="698">
-      <c r="O698" s="3"/>
+      <c r="P698" s="2"/>
+      <c r="S698" s="2"/>
     </row>
     <row r="699">
-      <c r="O699" s="3"/>
+      <c r="P699" s="2"/>
+      <c r="S699" s="2"/>
     </row>
     <row r="700">
-      <c r="O700" s="3"/>
+      <c r="P700" s="2"/>
+      <c r="S700" s="2"/>
     </row>
     <row r="701">
-      <c r="O701" s="3"/>
+      <c r="P701" s="2"/>
+      <c r="S701" s="2"/>
     </row>
     <row r="702">
-      <c r="O702" s="3"/>
+      <c r="P702" s="2"/>
+      <c r="S702" s="2"/>
     </row>
     <row r="703">
-      <c r="O703" s="3"/>
+      <c r="P703" s="2"/>
+      <c r="S703" s="2"/>
     </row>
     <row r="704">
-      <c r="O704" s="3"/>
+      <c r="P704" s="2"/>
+      <c r="S704" s="2"/>
     </row>
     <row r="705">
-      <c r="O705" s="3"/>
+      <c r="P705" s="2"/>
+      <c r="S705" s="2"/>
     </row>
     <row r="706">
-      <c r="O706" s="3"/>
+      <c r="P706" s="2"/>
+      <c r="S706" s="2"/>
     </row>
     <row r="707">
-      <c r="O707" s="3"/>
+      <c r="P707" s="2"/>
+      <c r="S707" s="2"/>
     </row>
     <row r="708">
-      <c r="O708" s="3"/>
+      <c r="P708" s="2"/>
+      <c r="S708" s="2"/>
     </row>
     <row r="709">
-      <c r="O709" s="3"/>
+      <c r="P709" s="2"/>
+      <c r="S709" s="2"/>
     </row>
     <row r="710">
-      <c r="O710" s="3"/>
+      <c r="P710" s="2"/>
+      <c r="S710" s="2"/>
     </row>
     <row r="711">
-      <c r="O711" s="3"/>
+      <c r="P711" s="2"/>
+      <c r="S711" s="2"/>
     </row>
     <row r="712">
-      <c r="O712" s="3"/>
+      <c r="P712" s="2"/>
+      <c r="S712" s="2"/>
     </row>
     <row r="713">
-      <c r="O713" s="3"/>
+      <c r="P713" s="2"/>
+      <c r="S713" s="2"/>
     </row>
     <row r="714">
-      <c r="O714" s="3"/>
+      <c r="P714" s="2"/>
+      <c r="S714" s="2"/>
     </row>
     <row r="715">
-      <c r="O715" s="3"/>
+      <c r="P715" s="2"/>
+      <c r="S715" s="2"/>
     </row>
     <row r="716">
-      <c r="O716" s="3"/>
+      <c r="P716" s="2"/>
+      <c r="S716" s="2"/>
     </row>
     <row r="717">
-      <c r="O717" s="3"/>
+      <c r="P717" s="2"/>
+      <c r="S717" s="2"/>
     </row>
     <row r="718">
-      <c r="O718" s="3"/>
+      <c r="P718" s="2"/>
+      <c r="S718" s="2"/>
     </row>
     <row r="719">
-      <c r="O719" s="3"/>
+      <c r="P719" s="2"/>
+      <c r="S719" s="2"/>
     </row>
     <row r="720">
-      <c r="O720" s="3"/>
+      <c r="P720" s="2"/>
+      <c r="S720" s="2"/>
     </row>
     <row r="721">
-      <c r="O721" s="3"/>
+      <c r="P721" s="2"/>
+      <c r="S721" s="2"/>
     </row>
     <row r="722">
-      <c r="O722" s="3"/>
+      <c r="P722" s="2"/>
+      <c r="S722" s="2"/>
     </row>
     <row r="723">
-      <c r="O723" s="3"/>
+      <c r="P723" s="2"/>
+      <c r="S723" s="2"/>
     </row>
     <row r="724">
-      <c r="O724" s="3"/>
+      <c r="P724" s="2"/>
+      <c r="S724" s="2"/>
     </row>
     <row r="725">
-      <c r="O725" s="3"/>
+      <c r="P725" s="2"/>
+      <c r="S725" s="2"/>
     </row>
     <row r="726">
-      <c r="O726" s="3"/>
+      <c r="P726" s="2"/>
+      <c r="S726" s="2"/>
     </row>
     <row r="727">
-      <c r="O727" s="3"/>
+      <c r="P727" s="2"/>
+      <c r="S727" s="2"/>
     </row>
     <row r="728">
-      <c r="O728" s="3"/>
+      <c r="P728" s="2"/>
+      <c r="S728" s="2"/>
     </row>
     <row r="729">
-      <c r="O729" s="3"/>
+      <c r="P729" s="2"/>
+      <c r="S729" s="2"/>
     </row>
     <row r="730">
-      <c r="O730" s="3"/>
+      <c r="P730" s="2"/>
+      <c r="S730" s="2"/>
     </row>
     <row r="731">
-      <c r="O731" s="3"/>
+      <c r="P731" s="2"/>
+      <c r="S731" s="2"/>
     </row>
     <row r="732">
-      <c r="O732" s="3"/>
+      <c r="P732" s="2"/>
+      <c r="S732" s="2"/>
     </row>
     <row r="733">
-      <c r="O733" s="3"/>
+      <c r="P733" s="2"/>
+      <c r="S733" s="2"/>
     </row>
     <row r="734">
-      <c r="O734" s="3"/>
+      <c r="P734" s="2"/>
+      <c r="S734" s="2"/>
     </row>
     <row r="735">
-      <c r="O735" s="3"/>
+      <c r="P735" s="2"/>
+      <c r="S735" s="2"/>
     </row>
     <row r="736">
-      <c r="O736" s="3"/>
+      <c r="P736" s="2"/>
+      <c r="S736" s="2"/>
     </row>
     <row r="737">
-      <c r="O737" s="3"/>
+      <c r="P737" s="2"/>
+      <c r="S737" s="2"/>
     </row>
     <row r="738">
-      <c r="O738" s="3"/>
+      <c r="P738" s="2"/>
+      <c r="S738" s="2"/>
     </row>
     <row r="739">
-      <c r="O739" s="3"/>
+      <c r="P739" s="2"/>
+      <c r="S739" s="2"/>
     </row>
     <row r="740">
-      <c r="O740" s="3"/>
+      <c r="P740" s="2"/>
+      <c r="S740" s="2"/>
     </row>
     <row r="741">
-      <c r="O741" s="3"/>
+      <c r="P741" s="2"/>
+      <c r="S741" s="2"/>
     </row>
     <row r="742">
-      <c r="O742" s="3"/>
+      <c r="P742" s="2"/>
+      <c r="S742" s="2"/>
     </row>
     <row r="743">
-      <c r="O743" s="3"/>
+      <c r="P743" s="2"/>
+      <c r="S743" s="2"/>
     </row>
     <row r="744">
-      <c r="O744" s="3"/>
+      <c r="P744" s="2"/>
+      <c r="S744" s="2"/>
     </row>
     <row r="745">
-      <c r="O745" s="3"/>
+      <c r="P745" s="2"/>
+      <c r="S745" s="2"/>
     </row>
     <row r="746">
-      <c r="O746" s="3"/>
+      <c r="P746" s="2"/>
+      <c r="S746" s="2"/>
     </row>
     <row r="747">
-      <c r="O747" s="3"/>
+      <c r="P747" s="2"/>
+      <c r="S747" s="2"/>
     </row>
     <row r="748">
-      <c r="O748" s="3"/>
+      <c r="P748" s="2"/>
+      <c r="S748" s="2"/>
     </row>
     <row r="749">
-      <c r="O749" s="3"/>
+      <c r="P749" s="2"/>
+      <c r="S749" s="2"/>
     </row>
     <row r="750">
-      <c r="O750" s="3"/>
+      <c r="P750" s="2"/>
+      <c r="S750" s="2"/>
     </row>
     <row r="751">
-      <c r="O751" s="3"/>
+      <c r="P751" s="2"/>
+      <c r="S751" s="2"/>
     </row>
     <row r="752">
-      <c r="O752" s="3"/>
+      <c r="P752" s="2"/>
+      <c r="S752" s="2"/>
     </row>
     <row r="753">
-      <c r="O753" s="3"/>
+      <c r="P753" s="2"/>
+      <c r="S753" s="2"/>
     </row>
     <row r="754">
-      <c r="O754" s="3"/>
+      <c r="P754" s="2"/>
+      <c r="S754" s="2"/>
     </row>
     <row r="755">
-      <c r="O755" s="3"/>
+      <c r="P755" s="2"/>
+      <c r="S755" s="2"/>
     </row>
     <row r="756">
-      <c r="O756" s="3"/>
+      <c r="P756" s="2"/>
+      <c r="S756" s="2"/>
     </row>
     <row r="757">
-      <c r="O757" s="3"/>
+      <c r="P757" s="2"/>
+      <c r="S757" s="2"/>
     </row>
     <row r="758">
-      <c r="O758" s="3"/>
+      <c r="P758" s="2"/>
+      <c r="S758" s="2"/>
     </row>
     <row r="759">
-      <c r="O759" s="3"/>
+      <c r="P759" s="2"/>
+      <c r="S759" s="2"/>
     </row>
     <row r="760">
-      <c r="O760" s="3"/>
+      <c r="P760" s="2"/>
+      <c r="S760" s="2"/>
     </row>
     <row r="761">
-      <c r="O761" s="3"/>
+      <c r="P761" s="2"/>
+      <c r="S761" s="2"/>
     </row>
     <row r="762">
-      <c r="O762" s="3"/>
+      <c r="P762" s="2"/>
+      <c r="S762" s="2"/>
     </row>
     <row r="763">
-      <c r="O763" s="3"/>
+      <c r="P763" s="2"/>
+      <c r="S763" s="2"/>
     </row>
     <row r="764">
-      <c r="O764" s="3"/>
+      <c r="P764" s="2"/>
+      <c r="S764" s="2"/>
     </row>
     <row r="765">
-      <c r="O765" s="3"/>
+      <c r="P765" s="2"/>
+      <c r="S765" s="2"/>
     </row>
     <row r="766">
-      <c r="O766" s="3"/>
+      <c r="P766" s="2"/>
+      <c r="S766" s="2"/>
     </row>
     <row r="767">
-      <c r="O767" s="3"/>
+      <c r="P767" s="2"/>
+      <c r="S767" s="2"/>
     </row>
     <row r="768">
-      <c r="O768" s="3"/>
+      <c r="P768" s="2"/>
+      <c r="S768" s="2"/>
     </row>
     <row r="769">
-      <c r="O769" s="3"/>
+      <c r="P769" s="2"/>
+      <c r="S769" s="2"/>
     </row>
     <row r="770">
-      <c r="O770" s="3"/>
+      <c r="P770" s="2"/>
+      <c r="S770" s="2"/>
     </row>
     <row r="771">
-      <c r="O771" s="3"/>
+      <c r="P771" s="2"/>
+      <c r="S771" s="2"/>
     </row>
     <row r="772">
-      <c r="O772" s="3"/>
+      <c r="P772" s="2"/>
+      <c r="S772" s="2"/>
     </row>
     <row r="773">
-      <c r="O773" s="3"/>
+      <c r="P773" s="2"/>
+      <c r="S773" s="2"/>
     </row>
     <row r="774">
-      <c r="O774" s="3"/>
+      <c r="P774" s="2"/>
+      <c r="S774" s="2"/>
     </row>
     <row r="775">
-      <c r="O775" s="3"/>
+      <c r="P775" s="2"/>
+      <c r="S775" s="2"/>
     </row>
     <row r="776">
-      <c r="O776" s="3"/>
+      <c r="P776" s="2"/>
+      <c r="S776" s="2"/>
     </row>
     <row r="777">
-      <c r="O777" s="3"/>
+      <c r="P777" s="2"/>
+      <c r="S777" s="2"/>
     </row>
     <row r="778">
-      <c r="O778" s="3"/>
+      <c r="P778" s="2"/>
+      <c r="S778" s="2"/>
     </row>
     <row r="779">
-      <c r="O779" s="3"/>
+      <c r="P779" s="2"/>
+      <c r="S779" s="2"/>
     </row>
     <row r="780">
-      <c r="O780" s="3"/>
+      <c r="P780" s="2"/>
+      <c r="S780" s="2"/>
     </row>
     <row r="781">
-      <c r="O781" s="3"/>
+      <c r="P781" s="2"/>
+      <c r="S781" s="2"/>
     </row>
     <row r="782">
-      <c r="O782" s="3"/>
+      <c r="P782" s="2"/>
+      <c r="S782" s="2"/>
     </row>
     <row r="783">
-      <c r="O783" s="3"/>
+      <c r="P783" s="2"/>
+      <c r="S783" s="2"/>
     </row>
     <row r="784">
-      <c r="O784" s="3"/>
+      <c r="P784" s="2"/>
+      <c r="S784" s="2"/>
     </row>
     <row r="785">
-      <c r="O785" s="3"/>
+      <c r="P785" s="2"/>
+      <c r="S785" s="2"/>
     </row>
     <row r="786">
-      <c r="O786" s="3"/>
+      <c r="P786" s="2"/>
+      <c r="S786" s="2"/>
     </row>
     <row r="787">
-      <c r="O787" s="3"/>
+      <c r="P787" s="2"/>
+      <c r="S787" s="2"/>
     </row>
     <row r="788">
-      <c r="O788" s="3"/>
+      <c r="P788" s="2"/>
+      <c r="S788" s="2"/>
     </row>
     <row r="789">
-      <c r="O789" s="3"/>
+      <c r="P789" s="2"/>
+      <c r="S789" s="2"/>
     </row>
     <row r="790">
-      <c r="O790" s="3"/>
+      <c r="P790" s="2"/>
+      <c r="S790" s="2"/>
     </row>
     <row r="791">
-      <c r="O791" s="3"/>
+      <c r="P791" s="2"/>
+      <c r="S791" s="2"/>
     </row>
     <row r="792">
-      <c r="O792" s="3"/>
+      <c r="P792" s="2"/>
+      <c r="S792" s="2"/>
     </row>
     <row r="793">
-      <c r="O793" s="3"/>
+      <c r="P793" s="2"/>
+      <c r="S793" s="2"/>
     </row>
     <row r="794">
-      <c r="O794" s="3"/>
+      <c r="P794" s="2"/>
+      <c r="S794" s="2"/>
     </row>
     <row r="795">
-      <c r="O795" s="3"/>
+      <c r="P795" s="2"/>
+      <c r="S795" s="2"/>
     </row>
     <row r="796">
-      <c r="O796" s="3"/>
+      <c r="P796" s="2"/>
+      <c r="S796" s="2"/>
     </row>
     <row r="797">
-      <c r="O797" s="3"/>
+      <c r="P797" s="2"/>
+      <c r="S797" s="2"/>
     </row>
     <row r="798">
-      <c r="O798" s="3"/>
+      <c r="P798" s="2"/>
+      <c r="S798" s="2"/>
     </row>
     <row r="799">
-      <c r="O799" s="3"/>
+      <c r="P799" s="2"/>
+      <c r="S799" s="2"/>
     </row>
     <row r="800">
-      <c r="O800" s="3"/>
+      <c r="P800" s="2"/>
+      <c r="S800" s="2"/>
     </row>
     <row r="801">
-      <c r="O801" s="3"/>
+      <c r="P801" s="2"/>
+      <c r="S801" s="2"/>
     </row>
     <row r="802">
-      <c r="O802" s="3"/>
+      <c r="P802" s="2"/>
+      <c r="S802" s="2"/>
     </row>
     <row r="803">
-      <c r="O803" s="3"/>
+      <c r="P803" s="2"/>
+      <c r="S803" s="2"/>
     </row>
     <row r="804">
-      <c r="O804" s="3"/>
+      <c r="P804" s="2"/>
+      <c r="S804" s="2"/>
     </row>
     <row r="805">
-      <c r="O805" s="3"/>
+      <c r="P805" s="2"/>
+      <c r="S805" s="2"/>
     </row>
     <row r="806">
-      <c r="O806" s="3"/>
+      <c r="P806" s="2"/>
+      <c r="S806" s="2"/>
     </row>
     <row r="807">
-      <c r="O807" s="3"/>
+      <c r="P807" s="2"/>
+      <c r="S807" s="2"/>
     </row>
     <row r="808">
-      <c r="O808" s="3"/>
+      <c r="P808" s="2"/>
+      <c r="S808" s="2"/>
     </row>
     <row r="809">
-      <c r="O809" s="3"/>
+      <c r="P809" s="2"/>
+      <c r="S809" s="2"/>
     </row>
     <row r="810">
-      <c r="O810" s="3"/>
+      <c r="P810" s="2"/>
+      <c r="S810" s="2"/>
     </row>
     <row r="811">
-      <c r="O811" s="3"/>
+      <c r="P811" s="2"/>
+      <c r="S811" s="2"/>
     </row>
     <row r="812">
-      <c r="O812" s="3"/>
+      <c r="P812" s="2"/>
+      <c r="S812" s="2"/>
     </row>
     <row r="813">
-      <c r="O813" s="3"/>
+      <c r="P813" s="2"/>
+      <c r="S813" s="2"/>
     </row>
     <row r="814">
-      <c r="O814" s="3"/>
+      <c r="P814" s="2"/>
+      <c r="S814" s="2"/>
     </row>
     <row r="815">
-      <c r="O815" s="3"/>
+      <c r="P815" s="2"/>
+      <c r="S815" s="2"/>
     </row>
     <row r="816">
-      <c r="O816" s="3"/>
+      <c r="P816" s="2"/>
+      <c r="S816" s="2"/>
     </row>
     <row r="817">
-      <c r="O817" s="3"/>
+      <c r="P817" s="2"/>
+      <c r="S817" s="2"/>
     </row>
     <row r="818">
-      <c r="O818" s="3"/>
+      <c r="P818" s="2"/>
+      <c r="S818" s="2"/>
     </row>
     <row r="819">
-      <c r="O819" s="3"/>
+      <c r="P819" s="2"/>
+      <c r="S819" s="2"/>
     </row>
     <row r="820">
-      <c r="O820" s="3"/>
+      <c r="P820" s="2"/>
+      <c r="S820" s="2"/>
     </row>
     <row r="821">
-      <c r="O821" s="3"/>
+      <c r="P821" s="2"/>
+      <c r="S821" s="2"/>
     </row>
     <row r="822">
-      <c r="O822" s="3"/>
+      <c r="P822" s="2"/>
+      <c r="S822" s="2"/>
     </row>
     <row r="823">
-      <c r="O823" s="3"/>
+      <c r="P823" s="2"/>
+      <c r="S823" s="2"/>
     </row>
     <row r="824">
-      <c r="O824" s="3"/>
+      <c r="P824" s="2"/>
+      <c r="S824" s="2"/>
     </row>
     <row r="825">
-      <c r="O825" s="3"/>
+      <c r="P825" s="2"/>
+      <c r="S825" s="2"/>
     </row>
     <row r="826">
-      <c r="O826" s="3"/>
+      <c r="P826" s="2"/>
+      <c r="S826" s="2"/>
     </row>
     <row r="827">
-      <c r="O827" s="3"/>
+      <c r="P827" s="2"/>
+      <c r="S827" s="2"/>
     </row>
     <row r="828">
-      <c r="O828" s="3"/>
+      <c r="P828" s="2"/>
+      <c r="S828" s="2"/>
     </row>
     <row r="829">
-      <c r="O829" s="3"/>
+      <c r="P829" s="2"/>
+      <c r="S829" s="2"/>
     </row>
     <row r="830">
-      <c r="O830" s="3"/>
+      <c r="P830" s="2"/>
+      <c r="S830" s="2"/>
     </row>
     <row r="831">
-      <c r="O831" s="3"/>
+      <c r="P831" s="2"/>
+      <c r="S831" s="2"/>
     </row>
     <row r="832">
-      <c r="O832" s="3"/>
+      <c r="P832" s="2"/>
+      <c r="S832" s="2"/>
     </row>
     <row r="833">
-      <c r="O833" s="3"/>
+      <c r="P833" s="2"/>
+      <c r="S833" s="2"/>
     </row>
     <row r="834">
-      <c r="O834" s="3"/>
+      <c r="P834" s="2"/>
+      <c r="S834" s="2"/>
     </row>
     <row r="835">
-      <c r="O835" s="3"/>
+      <c r="P835" s="2"/>
+      <c r="S835" s="2"/>
     </row>
     <row r="836">
-      <c r="O836" s="3"/>
+      <c r="P836" s="2"/>
+      <c r="S836" s="2"/>
     </row>
     <row r="837">
-      <c r="O837" s="3"/>
+      <c r="P837" s="2"/>
+      <c r="S837" s="2"/>
     </row>
     <row r="838">
-      <c r="O838" s="3"/>
+      <c r="P838" s="2"/>
+      <c r="S838" s="2"/>
     </row>
     <row r="839">
-      <c r="O839" s="3"/>
+      <c r="P839" s="2"/>
+      <c r="S839" s="2"/>
     </row>
     <row r="840">
-      <c r="O840" s="3"/>
+      <c r="P840" s="2"/>
+      <c r="S840" s="2"/>
     </row>
     <row r="841">
-      <c r="O841" s="3"/>
+      <c r="P841" s="2"/>
+      <c r="S841" s="2"/>
     </row>
     <row r="842">
-      <c r="O842" s="3"/>
+      <c r="P842" s="2"/>
+      <c r="S842" s="2"/>
     </row>
     <row r="843">
-      <c r="O843" s="3"/>
+      <c r="P843" s="2"/>
+      <c r="S843" s="2"/>
     </row>
     <row r="844">
-      <c r="O844" s="3"/>
+      <c r="P844" s="2"/>
+      <c r="S844" s="2"/>
     </row>
     <row r="845">
-      <c r="O845" s="3"/>
+      <c r="P845" s="2"/>
+      <c r="S845" s="2"/>
     </row>
     <row r="846">
-      <c r="O846" s="3"/>
+      <c r="P846" s="2"/>
+      <c r="S846" s="2"/>
     </row>
     <row r="847">
-      <c r="O847" s="3"/>
+      <c r="P847" s="2"/>
+      <c r="S847" s="2"/>
     </row>
     <row r="848">
-      <c r="O848" s="3"/>
+      <c r="P848" s="2"/>
+      <c r="S848" s="2"/>
     </row>
     <row r="849">
-      <c r="O849" s="3"/>
+      <c r="P849" s="2"/>
+      <c r="S849" s="2"/>
     </row>
     <row r="850">
-      <c r="O850" s="3"/>
+      <c r="P850" s="2"/>
+      <c r="S850" s="2"/>
     </row>
     <row r="851">
-      <c r="O851" s="3"/>
+      <c r="P851" s="2"/>
+      <c r="S851" s="2"/>
     </row>
     <row r="852">
-      <c r="O852" s="3"/>
+      <c r="P852" s="2"/>
+      <c r="S852" s="2"/>
     </row>
     <row r="853">
-      <c r="O853" s="3"/>
+      <c r="P853" s="2"/>
+      <c r="S853" s="2"/>
     </row>
     <row r="854">
-      <c r="O854" s="3"/>
+      <c r="P854" s="2"/>
+      <c r="S854" s="2"/>
     </row>
     <row r="855">
-      <c r="O855" s="3"/>
+      <c r="P855" s="2"/>
+      <c r="S855" s="2"/>
     </row>
     <row r="856">
-      <c r="O856" s="3"/>
+      <c r="P856" s="2"/>
+      <c r="S856" s="2"/>
     </row>
     <row r="857">
-      <c r="O857" s="3"/>
+      <c r="P857" s="2"/>
+      <c r="S857" s="2"/>
     </row>
     <row r="858">
-      <c r="O858" s="3"/>
+      <c r="P858" s="2"/>
+      <c r="S858" s="2"/>
     </row>
     <row r="859">
-      <c r="O859" s="3"/>
+      <c r="P859" s="2"/>
+      <c r="S859" s="2"/>
     </row>
     <row r="860">
-      <c r="O860" s="3"/>
+      <c r="P860" s="2"/>
+      <c r="S860" s="2"/>
     </row>
     <row r="861">
-      <c r="O861" s="3"/>
+      <c r="P861" s="2"/>
+      <c r="S861" s="2"/>
     </row>
     <row r="862">
-      <c r="O862" s="3"/>
+      <c r="P862" s="2"/>
+      <c r="S862" s="2"/>
     </row>
     <row r="863">
-      <c r="O863" s="3"/>
+      <c r="P863" s="2"/>
+      <c r="S863" s="2"/>
     </row>
     <row r="864">
-      <c r="O864" s="3"/>
+      <c r="P864" s="2"/>
+      <c r="S864" s="2"/>
     </row>
     <row r="865">
-      <c r="O865" s="3"/>
+      <c r="P865" s="2"/>
+      <c r="S865" s="2"/>
     </row>
     <row r="866">
-      <c r="O866" s="3"/>
+      <c r="P866" s="2"/>
+      <c r="S866" s="2"/>
     </row>
     <row r="867">
-      <c r="O867" s="3"/>
+      <c r="P867" s="2"/>
+      <c r="S867" s="2"/>
     </row>
     <row r="868">
-      <c r="O868" s="3"/>
+      <c r="P868" s="2"/>
+      <c r="S868" s="2"/>
     </row>
     <row r="869">
-      <c r="O869" s="3"/>
+      <c r="P869" s="2"/>
+      <c r="S869" s="2"/>
     </row>
     <row r="870">
-      <c r="O870" s="3"/>
+      <c r="P870" s="2"/>
+      <c r="S870" s="2"/>
     </row>
     <row r="871">
-      <c r="O871" s="3"/>
+      <c r="P871" s="2"/>
+      <c r="S871" s="2"/>
     </row>
     <row r="872">
-      <c r="O872" s="3"/>
+      <c r="P872" s="2"/>
+      <c r="S872" s="2"/>
     </row>
     <row r="873">
-      <c r="O873" s="3"/>
+      <c r="P873" s="2"/>
+      <c r="S873" s="2"/>
     </row>
     <row r="874">
-      <c r="O874" s="3"/>
+      <c r="P874" s="2"/>
+      <c r="S874" s="2"/>
     </row>
     <row r="875">
-      <c r="O875" s="3"/>
+      <c r="P875" s="2"/>
+      <c r="S875" s="2"/>
     </row>
     <row r="876">
-      <c r="O876" s="3"/>
+      <c r="P876" s="2"/>
+      <c r="S876" s="2"/>
     </row>
     <row r="877">
-      <c r="O877" s="3"/>
+      <c r="P877" s="2"/>
+      <c r="S877" s="2"/>
     </row>
     <row r="878">
-      <c r="O878" s="3"/>
+      <c r="P878" s="2"/>
+      <c r="S878" s="2"/>
     </row>
     <row r="879">
-      <c r="O879" s="3"/>
+      <c r="P879" s="2"/>
+      <c r="S879" s="2"/>
     </row>
     <row r="880">
-      <c r="O880" s="3"/>
+      <c r="P880" s="2"/>
+      <c r="S880" s="2"/>
     </row>
     <row r="881">
-      <c r="O881" s="3"/>
+      <c r="P881" s="2"/>
+      <c r="S881" s="2"/>
     </row>
     <row r="882">
-      <c r="O882" s="3"/>
+      <c r="P882" s="2"/>
+      <c r="S882" s="2"/>
     </row>
     <row r="883">
-      <c r="O883" s="3"/>
+      <c r="P883" s="2"/>
+      <c r="S883" s="2"/>
     </row>
     <row r="884">
-      <c r="O884" s="3"/>
+      <c r="P884" s="2"/>
+      <c r="S884" s="2"/>
     </row>
     <row r="885">
-      <c r="O885" s="3"/>
+      <c r="P885" s="2"/>
+      <c r="S885" s="2"/>
     </row>
     <row r="886">
-      <c r="O886" s="3"/>
+      <c r="P886" s="2"/>
+      <c r="S886" s="2"/>
     </row>
     <row r="887">
-      <c r="O887" s="3"/>
+      <c r="P887" s="2"/>
+      <c r="S887" s="2"/>
     </row>
     <row r="888">
-      <c r="O888" s="3"/>
+      <c r="P888" s="2"/>
+      <c r="S888" s="2"/>
     </row>
     <row r="889">
-      <c r="O889" s="3"/>
+      <c r="P889" s="2"/>
+      <c r="S889" s="2"/>
     </row>
     <row r="890">
-      <c r="O890" s="3"/>
+      <c r="P890" s="2"/>
+      <c r="S890" s="2"/>
     </row>
     <row r="891">
-      <c r="O891" s="3"/>
+      <c r="P891" s="2"/>
+      <c r="S891" s="2"/>
     </row>
     <row r="892">
-      <c r="O892" s="3"/>
+      <c r="P892" s="2"/>
+      <c r="S892" s="2"/>
     </row>
     <row r="893">
-      <c r="O893" s="3"/>
+      <c r="P893" s="2"/>
+      <c r="S893" s="2"/>
     </row>
     <row r="894">
-      <c r="O894" s="3"/>
+      <c r="P894" s="2"/>
+      <c r="S894" s="2"/>
     </row>
     <row r="895">
-      <c r="O895" s="3"/>
+      <c r="P895" s="2"/>
+      <c r="S895" s="2"/>
     </row>
     <row r="896">
-      <c r="O896" s="3"/>
+      <c r="P896" s="2"/>
+      <c r="S896" s="2"/>
     </row>
     <row r="897">
-      <c r="O897" s="3"/>
+      <c r="P897" s="2"/>
+      <c r="S897" s="2"/>
     </row>
     <row r="898">
-      <c r="O898" s="3"/>
+      <c r="P898" s="2"/>
+      <c r="S898" s="2"/>
     </row>
     <row r="899">
-      <c r="O899" s="3"/>
+      <c r="P899" s="2"/>
+      <c r="S899" s="2"/>
     </row>
     <row r="900">
-      <c r="O900" s="3"/>
+      <c r="P900" s="2"/>
+      <c r="S900" s="2"/>
     </row>
     <row r="901">
-      <c r="O901" s="3"/>
+      <c r="P901" s="2"/>
+      <c r="S901" s="2"/>
     </row>
     <row r="902">
-      <c r="O902" s="3"/>
+      <c r="P902" s="2"/>
+      <c r="S902" s="2"/>
     </row>
     <row r="903">
-      <c r="O903" s="3"/>
+      <c r="P903" s="2"/>
+      <c r="S903" s="2"/>
     </row>
     <row r="904">
-      <c r="O904" s="3"/>
+      <c r="P904" s="2"/>
+      <c r="S904" s="2"/>
     </row>
     <row r="905">
-      <c r="O905" s="3"/>
+      <c r="P905" s="2"/>
+      <c r="S905" s="2"/>
     </row>
     <row r="906">
-      <c r="O906" s="3"/>
+      <c r="P906" s="2"/>
+      <c r="S906" s="2"/>
     </row>
     <row r="907">
-      <c r="O907" s="3"/>
+      <c r="P907" s="2"/>
+      <c r="S907" s="2"/>
     </row>
     <row r="908">
-      <c r="O908" s="3"/>
+      <c r="P908" s="2"/>
+      <c r="S908" s="2"/>
     </row>
     <row r="909">
-      <c r="O909" s="3"/>
+      <c r="P909" s="2"/>
+      <c r="S909" s="2"/>
     </row>
     <row r="910">
-      <c r="O910" s="3"/>
+      <c r="P910" s="2"/>
+      <c r="S910" s="2"/>
     </row>
     <row r="911">
-      <c r="O911" s="3"/>
+      <c r="P911" s="2"/>
+      <c r="S911" s="2"/>
     </row>
     <row r="912">
-      <c r="O912" s="3"/>
+      <c r="P912" s="2"/>
+      <c r="S912" s="2"/>
     </row>
     <row r="913">
-      <c r="O913" s="3"/>
+      <c r="P913" s="2"/>
+      <c r="S913" s="2"/>
     </row>
     <row r="914">
-      <c r="O914" s="3"/>
+      <c r="P914" s="2"/>
+      <c r="S914" s="2"/>
     </row>
     <row r="915">
-      <c r="O915" s="3"/>
+      <c r="P915" s="2"/>
+      <c r="S915" s="2"/>
     </row>
     <row r="916">
-      <c r="O916" s="3"/>
+      <c r="P916" s="2"/>
+      <c r="S916" s="2"/>
     </row>
     <row r="917">
-      <c r="O917" s="3"/>
+      <c r="P917" s="2"/>
+      <c r="S917" s="2"/>
     </row>
     <row r="918">
-      <c r="O918" s="3"/>
+      <c r="P918" s="2"/>
+      <c r="S918" s="2"/>
     </row>
     <row r="919">
-      <c r="O919" s="3"/>
+      <c r="P919" s="2"/>
+      <c r="S919" s="2"/>
     </row>
     <row r="920">
-      <c r="O920" s="3"/>
+      <c r="P920" s="2"/>
+      <c r="S920" s="2"/>
     </row>
     <row r="921">
-      <c r="O921" s="3"/>
+      <c r="P921" s="2"/>
+      <c r="S921" s="2"/>
     </row>
     <row r="922">
-      <c r="O922" s="3"/>
+      <c r="P922" s="2"/>
+      <c r="S922" s="2"/>
     </row>
     <row r="923">
-      <c r="O923" s="3"/>
+      <c r="P923" s="2"/>
+      <c r="S923" s="2"/>
     </row>
     <row r="924">
-      <c r="O924" s="3"/>
+      <c r="P924" s="2"/>
+      <c r="S924" s="2"/>
     </row>
     <row r="925">
-      <c r="O925" s="3"/>
+      <c r="P925" s="2"/>
+      <c r="S925" s="2"/>
     </row>
     <row r="926">
-      <c r="O926" s="3"/>
+      <c r="P926" s="2"/>
+      <c r="S926" s="2"/>
     </row>
     <row r="927">
-      <c r="O927" s="3"/>
+      <c r="P927" s="2"/>
+      <c r="S927" s="2"/>
     </row>
     <row r="928">
-      <c r="O928" s="3"/>
+      <c r="P928" s="2"/>
+      <c r="S928" s="2"/>
     </row>
     <row r="929">
-      <c r="O929" s="3"/>
+      <c r="P929" s="2"/>
+      <c r="S929" s="2"/>
     </row>
     <row r="930">
-      <c r="O930" s="3"/>
+      <c r="P930" s="2"/>
+      <c r="S930" s="2"/>
     </row>
     <row r="931">
-      <c r="O931" s="3"/>
+      <c r="P931" s="2"/>
+      <c r="S931" s="2"/>
     </row>
     <row r="932">
-      <c r="O932" s="3"/>
+      <c r="P932" s="2"/>
+      <c r="S932" s="2"/>
     </row>
     <row r="933">
-      <c r="O933" s="3"/>
+      <c r="P933" s="2"/>
+      <c r="S933" s="2"/>
     </row>
     <row r="934">
-      <c r="O934" s="3"/>
+      <c r="P934" s="2"/>
+      <c r="S934" s="2"/>
     </row>
     <row r="935">
-      <c r="O935" s="3"/>
+      <c r="P935" s="2"/>
+      <c r="S935" s="2"/>
     </row>
     <row r="936">
-      <c r="O936" s="3"/>
+      <c r="P936" s="2"/>
+      <c r="S936" s="2"/>
     </row>
     <row r="937">
-      <c r="O937" s="3"/>
+      <c r="P937" s="2"/>
+      <c r="S937" s="2"/>
     </row>
     <row r="938">
-      <c r="O938" s="3"/>
+      <c r="P938" s="2"/>
+      <c r="S938" s="2"/>
     </row>
     <row r="939">
-      <c r="O939" s="3"/>
+      <c r="P939" s="2"/>
+      <c r="S939" s="2"/>
     </row>
     <row r="940">
-      <c r="O940" s="3"/>
+      <c r="P940" s="2"/>
+      <c r="S940" s="2"/>
     </row>
     <row r="941">
-      <c r="O941" s="3"/>
+      <c r="P941" s="2"/>
+      <c r="S941" s="2"/>
     </row>
     <row r="942">
-      <c r="O942" s="3"/>
+      <c r="P942" s="2"/>
+      <c r="S942" s="2"/>
     </row>
     <row r="943">
-      <c r="O943" s="3"/>
+      <c r="P943" s="2"/>
+      <c r="S943" s="2"/>
     </row>
     <row r="944">
-      <c r="O944" s="3"/>
+      <c r="P944" s="2"/>
+      <c r="S944" s="2"/>
     </row>
     <row r="945">
-      <c r="O945" s="3"/>
+      <c r="P945" s="2"/>
+      <c r="S945" s="2"/>
     </row>
     <row r="946">
-      <c r="O946" s="3"/>
+      <c r="P946" s="2"/>
+      <c r="S946" s="2"/>
     </row>
     <row r="947">
-      <c r="O947" s="3"/>
+      <c r="P947" s="2"/>
+      <c r="S947" s="2"/>
     </row>
     <row r="948">
-      <c r="O948" s="3"/>
+      <c r="P948" s="2"/>
+      <c r="S948" s="2"/>
     </row>
     <row r="949">
-      <c r="O949" s="3"/>
+      <c r="P949" s="2"/>
+      <c r="S949" s="2"/>
     </row>
     <row r="950">
-      <c r="O950" s="3"/>
+      <c r="P950" s="2"/>
+      <c r="S950" s="2"/>
     </row>
     <row r="951">
-      <c r="O951" s="3"/>
+      <c r="P951" s="2"/>
+      <c r="S951" s="2"/>
     </row>
     <row r="952">
-      <c r="O952" s="3"/>
+      <c r="P952" s="2"/>
+      <c r="S952" s="2"/>
     </row>
     <row r="953">
-      <c r="O953" s="3"/>
+      <c r="P953" s="2"/>
+      <c r="S953" s="2"/>
     </row>
     <row r="954">
-      <c r="O954" s="3"/>
+      <c r="P954" s="2"/>
+      <c r="S954" s="2"/>
     </row>
     <row r="955">
-      <c r="O955" s="3"/>
+      <c r="P955" s="2"/>
+      <c r="S955" s="2"/>
     </row>
     <row r="956">
-      <c r="O956" s="3"/>
+      <c r="P956" s="2"/>
+      <c r="S956" s="2"/>
     </row>
     <row r="957">
-      <c r="O957" s="3"/>
+      <c r="P957" s="2"/>
+      <c r="S957" s="2"/>
     </row>
     <row r="958">
-      <c r="O958" s="3"/>
+      <c r="P958" s="2"/>
+      <c r="S958" s="2"/>
     </row>
     <row r="959">
-      <c r="O959" s="3"/>
+      <c r="P959" s="2"/>
+      <c r="S959" s="2"/>
     </row>
     <row r="960">
-      <c r="O960" s="3"/>
+      <c r="P960" s="2"/>
+      <c r="S960" s="2"/>
     </row>
     <row r="961">
-      <c r="O961" s="3"/>
+      <c r="P961" s="2"/>
+      <c r="S961" s="2"/>
     </row>
     <row r="962">
-      <c r="O962" s="3"/>
+      <c r="P962" s="2"/>
+      <c r="S962" s="2"/>
     </row>
     <row r="963">
-      <c r="O963" s="3"/>
+      <c r="P963" s="2"/>
+      <c r="S963" s="2"/>
     </row>
     <row r="964">
-      <c r="O964" s="3"/>
+      <c r="P964" s="2"/>
+      <c r="S964" s="2"/>
     </row>
     <row r="965">
-      <c r="O965" s="3"/>
+      <c r="P965" s="2"/>
+      <c r="S965" s="2"/>
     </row>
     <row r="966">
-      <c r="O966" s="3"/>
+      <c r="P966" s="2"/>
+      <c r="S966" s="2"/>
     </row>
     <row r="967">
-      <c r="O967" s="3"/>
+      <c r="P967" s="2"/>
+      <c r="S967" s="2"/>
     </row>
     <row r="968">
-      <c r="O968" s="3"/>
+      <c r="P968" s="2"/>
+      <c r="S968" s="2"/>
     </row>
     <row r="969">
-      <c r="O969" s="3"/>
+      <c r="P969" s="2"/>
+      <c r="S969" s="2"/>
     </row>
     <row r="970">
-      <c r="O970" s="3"/>
+      <c r="P970" s="2"/>
+      <c r="S970" s="2"/>
     </row>
     <row r="971">
-      <c r="O971" s="3"/>
+      <c r="P971" s="2"/>
+      <c r="S971" s="2"/>
     </row>
     <row r="972">
-      <c r="O972" s="3"/>
+      <c r="P972" s="2"/>
+      <c r="S972" s="2"/>
     </row>
     <row r="973">
-      <c r="O973" s="3"/>
+      <c r="P973" s="2"/>
+      <c r="S973" s="2"/>
     </row>
     <row r="974">
-      <c r="O974" s="3"/>
+      <c r="P974" s="2"/>
+      <c r="S974" s="2"/>
     </row>
     <row r="975">
-      <c r="O975" s="3"/>
+      <c r="P975" s="2"/>
+      <c r="S975" s="2"/>
     </row>
     <row r="976">
-      <c r="O976" s="3"/>
+      <c r="P976" s="2"/>
+      <c r="S976" s="2"/>
     </row>
     <row r="977">
-      <c r="O977" s="3"/>
+      <c r="P977" s="2"/>
+      <c r="S977" s="2"/>
     </row>
     <row r="978">
-      <c r="O978" s="3"/>
+      <c r="P978" s="2"/>
+      <c r="S978" s="2"/>
     </row>
     <row r="979">
-      <c r="O979" s="3"/>
+      <c r="P979" s="2"/>
+      <c r="S979" s="2"/>
     </row>
     <row r="980">
-      <c r="O980" s="3"/>
+      <c r="P980" s="2"/>
+      <c r="S980" s="2"/>
     </row>
     <row r="981">
-      <c r="O981" s="3"/>
+      <c r="P981" s="2"/>
+      <c r="S981" s="2"/>
     </row>
     <row r="982">
-      <c r="O982" s="3"/>
+      <c r="P982" s="2"/>
+      <c r="S982" s="2"/>
     </row>
     <row r="983">
-      <c r="O983" s="3"/>
+      <c r="P983" s="2"/>
+      <c r="S983" s="2"/>
     </row>
     <row r="984">
-      <c r="O984" s="3"/>
+      <c r="P984" s="2"/>
+      <c r="S984" s="2"/>
     </row>
     <row r="985">
-      <c r="O985" s="3"/>
+      <c r="P985" s="2"/>
+      <c r="S985" s="2"/>
     </row>
     <row r="986">
-      <c r="O986" s="3"/>
+      <c r="P986" s="2"/>
+      <c r="S986" s="2"/>
     </row>
     <row r="987">
-      <c r="O987" s="3"/>
+      <c r="P987" s="2"/>
+      <c r="S987" s="2"/>
     </row>
     <row r="988">
-      <c r="O988" s="3"/>
+      <c r="P988" s="2"/>
+      <c r="S988" s="2"/>
     </row>
     <row r="989">
-      <c r="O989" s="3"/>
+      <c r="P989" s="2"/>
+      <c r="S989" s="2"/>
     </row>
     <row r="990">
-      <c r="O990" s="3"/>
+      <c r="P990" s="2"/>
+      <c r="S990" s="2"/>
     </row>
     <row r="991">
-      <c r="O991" s="3"/>
+      <c r="P991" s="2"/>
+      <c r="S991" s="2"/>
     </row>
     <row r="992">
-      <c r="O992" s="3"/>
+      <c r="P992" s="2"/>
+      <c r="S992" s="2"/>
     </row>
     <row r="993">
-      <c r="O993" s="3"/>
+      <c r="P993" s="2"/>
+      <c r="S993" s="2"/>
     </row>
     <row r="994">
-      <c r="O994" s="3"/>
+      <c r="P994" s="2"/>
+      <c r="S994" s="2"/>
     </row>
     <row r="995">
-      <c r="O995" s="3"/>
+      <c r="P995" s="2"/>
+      <c r="S995" s="2"/>
     </row>
     <row r="996">
-      <c r="O996" s="3"/>
+      <c r="P996" s="2"/>
+      <c r="S996" s="2"/>
     </row>
     <row r="997">
-      <c r="O997" s="3"/>
+      <c r="P997" s="2"/>
+      <c r="S997" s="2"/>
     </row>
     <row r="998">
-      <c r="O998" s="3"/>
+      <c r="P998" s="2"/>
+      <c r="S998" s="2"/>
     </row>
     <row r="999">
-      <c r="O999" s="3"/>
+      <c r="P999" s="2"/>
+      <c r="S999" s="2"/>
     </row>
     <row r="1000">
-      <c r="O1000" s="3"/>
+      <c r="P1000" s="2"/>
+      <c r="S1000" s="2"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O1:O1000">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P1:P1000">
       <formula1>"Active,Inactive"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S1:S1000">
+      <formula1>"Full time,Part time,Hybrid"</formula1>
+    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="P2"/>
-    <hyperlink r:id="rId2" ref="P3"/>
-    <hyperlink r:id="rId3" ref="P4"/>
-  </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>